--- a/JupyterNotebooks/AvgHW/Alpha4F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9655475246610952</v>
+      </c>
+      <c r="D3">
+        <v>1.002872096663183</v>
+      </c>
+      <c r="E3">
         <v>1.021319841602998</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.9655475246610952</v>
-      </c>
-      <c r="E3">
-        <v>1.002872096663183</v>
-      </c>
-      <c r="F3">
-        <v>1.021319841602998</v>
       </c>
       <c r="G3">
         <v>1.002777549217559</v>
@@ -692,10 +644,10 @@
         <v>0.9835133290845978</v>
       </c>
       <c r="I3">
+        <v>1.021319841602998</v>
+      </c>
+      <c r="J3">
         <v>1.007990835033593</v>
-      </c>
-      <c r="J3">
-        <v>0.9655475246610952</v>
       </c>
       <c r="K3">
         <v>1.021319841602998</v>
@@ -728,7 +680,7 @@
         <v>0.9973368627105045</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,16 +688,16 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9334526809613151</v>
+      </c>
+      <c r="D4">
+        <v>1.005172150594626</v>
+      </c>
+      <c r="E4">
         <v>1.042088820508054</v>
       </c>
-      <c r="D4">
-        <v>0.9334526809613147</v>
-      </c>
-      <c r="E4">
-        <v>1.005172150594626</v>
-      </c>
       <c r="F4">
-        <v>1.042088820508054</v>
+        <v>0.9334526809613151</v>
       </c>
       <c r="G4">
         <v>1.005010421651394</v>
@@ -754,10 +706,10 @@
         <v>0.9681185213791522</v>
       </c>
       <c r="I4">
+        <v>1.042088820508054</v>
+      </c>
+      <c r="J4">
         <v>1.015351660763253</v>
-      </c>
-      <c r="J4">
-        <v>0.9334526809613147</v>
       </c>
       <c r="K4">
         <v>1.042088820508054</v>
@@ -766,19 +718,19 @@
         <v>1.005172150594626</v>
       </c>
       <c r="M4">
-        <v>0.9693124157779704</v>
+        <v>0.9693124157779706</v>
       </c>
       <c r="N4">
-        <v>0.9693124157779704</v>
+        <v>0.9693124157779706</v>
       </c>
       <c r="O4">
         <v>0.9689144509783644</v>
       </c>
       <c r="P4">
-        <v>0.9935712173546648</v>
+        <v>0.993571217354665</v>
       </c>
       <c r="Q4">
-        <v>0.9935712173546648</v>
+        <v>0.993571217354665</v>
       </c>
       <c r="R4">
         <v>1.005700618143012</v>
@@ -790,7 +742,7 @@
         <v>0.9948657093096324</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,16 +750,16 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.8747217146156244</v>
+      </c>
+      <c r="D5">
+        <v>1.011390482347434</v>
+      </c>
+      <c r="E5">
         <v>1.076452611123887</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0.8747217146156244</v>
-      </c>
-      <c r="E5">
-        <v>1.011390482347434</v>
-      </c>
-      <c r="F5">
-        <v>1.076452611123887</v>
       </c>
       <c r="G5">
         <v>1.013568731571547</v>
@@ -816,10 +768,10 @@
         <v>0.9388417576007501</v>
       </c>
       <c r="I5">
+        <v>1.076452611123887</v>
+      </c>
+      <c r="J5">
         <v>1.029302912275523</v>
-      </c>
-      <c r="J5">
-        <v>0.8747217146156244</v>
       </c>
       <c r="K5">
         <v>1.076452611123887</v>
@@ -852,7 +804,7 @@
         <v>0.9907130349224609</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,16 +812,16 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.8218359198133741</v>
+      </c>
+      <c r="D6">
+        <v>1.017046889176577</v>
+      </c>
+      <c r="E6">
         <v>1.108956091458279</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>0.8218359198133741</v>
-      </c>
-      <c r="E6">
-        <v>1.017046889176577</v>
-      </c>
-      <c r="F6">
-        <v>1.108956091458279</v>
       </c>
       <c r="G6">
         <v>1.024180909524</v>
@@ -878,10 +830,10 @@
         <v>0.9073344754041363</v>
       </c>
       <c r="I6">
+        <v>1.108956091458279</v>
+      </c>
+      <c r="J6">
         <v>1.043302368877623</v>
-      </c>
-      <c r="J6">
-        <v>0.8218359198133741</v>
       </c>
       <c r="K6">
         <v>1.108956091458279</v>
@@ -914,7 +866,7 @@
         <v>0.9871094423756649</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +874,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9996771878979598</v>
+        <v>0.9987746314075779</v>
       </c>
       <c r="D7">
-        <v>0.9987746314075777</v>
+        <v>1.000754116266385</v>
       </c>
       <c r="E7">
-        <v>1.000754116266385</v>
+        <v>0.99967718789796</v>
       </c>
       <c r="F7">
-        <v>0.9996771878979598</v>
+        <v>0.9987746314075779</v>
       </c>
       <c r="G7">
         <v>1.002545268904795</v>
       </c>
       <c r="H7">
-        <v>0.9989440016451888</v>
+        <v>0.9989440016451887</v>
       </c>
       <c r="I7">
+        <v>0.99967718789796</v>
+      </c>
+      <c r="J7">
         <v>1.000362493710586</v>
       </c>
-      <c r="J7">
-        <v>0.9987746314075777</v>
-      </c>
       <c r="K7">
-        <v>0.9996771878979598</v>
+        <v>0.99967718789796</v>
       </c>
       <c r="L7">
         <v>1.000754116266385</v>
       </c>
       <c r="M7">
-        <v>0.9997643738369812</v>
+        <v>0.9997643738369815</v>
       </c>
       <c r="N7">
-        <v>0.9997643738369812</v>
+        <v>0.9997643738369815</v>
       </c>
       <c r="O7">
-        <v>0.9994909164397171</v>
+        <v>0.9994909164397172</v>
       </c>
       <c r="P7">
-        <v>0.9997353118573074</v>
+        <v>0.9997353118573077</v>
       </c>
       <c r="Q7">
-        <v>0.9997353118573074</v>
+        <v>0.9997353118573077</v>
       </c>
       <c r="R7">
-        <v>0.9997207808674704</v>
+        <v>0.9997207808674707</v>
       </c>
       <c r="S7">
-        <v>0.9997207808674704</v>
+        <v>0.9997207808674707</v>
       </c>
       <c r="T7">
-        <v>1.000176283305415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000176283305416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +936,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998952518266518</v>
+        <v>0.9963477495736608</v>
       </c>
       <c r="D8">
-        <v>0.9963477495736612</v>
+        <v>1.001742538213956</v>
       </c>
       <c r="E8">
-        <v>1.001742538213956</v>
+        <v>0.9998952518266523</v>
       </c>
       <c r="F8">
-        <v>0.9998952518266518</v>
+        <v>0.9963477495736608</v>
       </c>
       <c r="G8">
-        <v>1.005954018670495</v>
+        <v>1.005954018670496</v>
       </c>
       <c r="H8">
         <v>0.9971809328567862</v>
       </c>
       <c r="I8">
+        <v>0.9998952518266523</v>
+      </c>
+      <c r="J8">
         <v>1.001004008152047</v>
       </c>
-      <c r="J8">
-        <v>0.9963477495736612</v>
-      </c>
       <c r="K8">
-        <v>0.9998952518266518</v>
+        <v>0.9998952518266523</v>
       </c>
       <c r="L8">
         <v>1.001742538213956</v>
       </c>
       <c r="M8">
-        <v>0.9990451438938085</v>
+        <v>0.9990451438938084</v>
       </c>
       <c r="N8">
-        <v>0.9990451438938085</v>
+        <v>0.9990451438938084</v>
       </c>
       <c r="O8">
         <v>0.998423740214801</v>
       </c>
       <c r="P8">
-        <v>0.9993285132047562</v>
+        <v>0.9993285132047564</v>
       </c>
       <c r="Q8">
         <v>0.9993285132047562</v>
       </c>
       <c r="R8">
-        <v>0.9994701978602302</v>
+        <v>0.9994701978602303</v>
       </c>
       <c r="S8">
-        <v>0.9994701978602302</v>
+        <v>0.9994701978602303</v>
       </c>
       <c r="T8">
         <v>1.0003540832156</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,16 +998,16 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9946141678520626</v>
+      </c>
+      <c r="D9">
+        <v>1.001812728005449</v>
+      </c>
+      <c r="E9">
         <v>1.001397553540039</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>0.9946141678520626</v>
-      </c>
-      <c r="E9">
-        <v>1.001812728005449</v>
-      </c>
-      <c r="F9">
-        <v>1.001397553540039</v>
       </c>
       <c r="G9">
         <v>1.007194332561831</v>
@@ -1064,10 +1016,10 @@
         <v>0.9960343142406762</v>
       </c>
       <c r="I9">
+        <v>1.001397553540039</v>
+      </c>
+      <c r="J9">
         <v>1.001348951241553</v>
-      </c>
-      <c r="J9">
-        <v>0.9946141678520626</v>
       </c>
       <c r="K9">
         <v>1.001397553540039</v>
@@ -1100,7 +1052,7 @@
         <v>1.000400341240268</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,16 +1060,16 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.988964241561173</v>
+      </c>
+      <c r="D10">
+        <v>1.004499356293827</v>
+      </c>
+      <c r="E10">
         <v>1.001234787803666</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>0.988964241561173</v>
-      </c>
-      <c r="E10">
-        <v>1.004499356293827</v>
-      </c>
-      <c r="F10">
-        <v>1.001234787803666</v>
       </c>
       <c r="G10">
         <v>1.01729390290549</v>
@@ -1126,10 +1078,10 @@
         <v>0.9915556941182255</v>
       </c>
       <c r="I10">
+        <v>1.001234787803666</v>
+      </c>
+      <c r="J10">
         <v>1.002839956079332</v>
-      </c>
-      <c r="J10">
-        <v>0.988964241561173</v>
       </c>
       <c r="K10">
         <v>1.001234787803666</v>
@@ -1162,7 +1114,7 @@
         <v>1.001064656460285</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,16 +1122,16 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9809538788644676</v>
+      </c>
+      <c r="D11">
+        <v>1.006050471235942</v>
+      </c>
+      <c r="E11">
         <v>1.006379860594387</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>0.9809538788644676</v>
-      </c>
-      <c r="E11">
-        <v>1.006050471235942</v>
-      </c>
-      <c r="F11">
-        <v>1.006379860594387</v>
       </c>
       <c r="G11">
         <v>1.024596735660762</v>
@@ -1188,10 +1140,10 @@
         <v>0.9856099764001238</v>
       </c>
       <c r="I11">
+        <v>1.006379860594387</v>
+      </c>
+      <c r="J11">
         <v>1.004926986959259</v>
-      </c>
-      <c r="J11">
-        <v>0.9809538788644676</v>
       </c>
       <c r="K11">
         <v>1.006379860594387</v>
@@ -1209,22 +1161,22 @@
         <v>0.9908714421668446</v>
       </c>
       <c r="P11">
-        <v>0.9977947368982657</v>
+        <v>0.9977947368982658</v>
       </c>
       <c r="Q11">
-        <v>0.9977947368982657</v>
+        <v>0.9977947368982658</v>
       </c>
       <c r="R11">
-        <v>0.9999410178222961</v>
+        <v>0.9999410178222962</v>
       </c>
       <c r="S11">
-        <v>0.9999410178222961</v>
+        <v>0.9999410178222962</v>
       </c>
       <c r="T11">
         <v>1.001419651619157</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9802252549497712</v>
+      </c>
+      <c r="D12">
+        <v>0.9602546650083731</v>
+      </c>
+      <c r="E12">
         <v>0.9690644164062651</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>0.9802252549497712</v>
       </c>
-      <c r="E12">
-        <v>0.9602546650083731</v>
-      </c>
-      <c r="F12">
-        <v>0.9690644164062651</v>
-      </c>
       <c r="G12">
-        <v>0.5807377993154516</v>
+        <v>0.5807377993154514</v>
       </c>
       <c r="H12">
         <v>1.175046938473264</v>
       </c>
       <c r="I12">
+        <v>0.9690644164062651</v>
+      </c>
+      <c r="J12">
         <v>0.9636430330401394</v>
-      </c>
-      <c r="J12">
-        <v>0.9802252549497712</v>
       </c>
       <c r="K12">
         <v>0.9690644164062651</v>
@@ -1286,7 +1238,7 @@
         <v>0.938162017865544</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,16 +1246,16 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.366709105250883</v>
+      </c>
+      <c r="D13">
+        <v>0.9050363461714496</v>
+      </c>
+      <c r="E13">
         <v>1.052375073598307</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>1.366709105250883</v>
-      </c>
-      <c r="E13">
-        <v>0.9050363461714496</v>
-      </c>
-      <c r="F13">
-        <v>1.052375073598307</v>
       </c>
       <c r="G13">
         <v>1.095215812843656</v>
@@ -1312,10 +1264,10 @@
         <v>1.014476184280964</v>
       </c>
       <c r="I13">
+        <v>1.052375073598307</v>
+      </c>
+      <c r="J13">
         <v>0.9490405117343005</v>
-      </c>
-      <c r="J13">
-        <v>1.366709105250883</v>
       </c>
       <c r="K13">
         <v>1.052375073598307</v>
@@ -1348,7 +1300,7 @@
         <v>1.063808838979927</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.96233846481208</v>
+      </c>
+      <c r="D14">
+        <v>0.7440129901615185</v>
+      </c>
+      <c r="E14">
         <v>0.9526359153981008</v>
       </c>
-      <c r="D14">
-        <v>1.962338464812079</v>
-      </c>
-      <c r="E14">
-        <v>0.7440129901615185</v>
-      </c>
       <c r="F14">
-        <v>0.9526359153981008</v>
+        <v>1.96233846481208</v>
       </c>
       <c r="G14">
-        <v>0.6202844476594193</v>
+        <v>0.6202844476594191</v>
       </c>
       <c r="H14">
         <v>1.348812791764563</v>
       </c>
       <c r="I14">
+        <v>0.9526359153981008</v>
+      </c>
+      <c r="J14">
         <v>0.8012109449619563</v>
-      </c>
-      <c r="J14">
-        <v>1.962338464812079</v>
       </c>
       <c r="K14">
         <v>0.9526359153981008</v>
@@ -1398,7 +1350,7 @@
         <v>1.219662456790566</v>
       </c>
       <c r="Q14">
-        <v>1.219662456790566</v>
+        <v>1.219662456790567</v>
       </c>
       <c r="R14">
         <v>1.15290582144245</v>
@@ -1410,7 +1362,7 @@
         <v>1.071549259126273</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,16 +1370,16 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.8417855322121204</v>
+      </c>
+      <c r="D15">
+        <v>1.051784475542883</v>
+      </c>
+      <c r="E15">
         <v>0.7818432552287572</v>
       </c>
-      <c r="D15">
-        <v>0.8417855322121205</v>
-      </c>
-      <c r="E15">
-        <v>1.051784475542883</v>
-      </c>
       <c r="F15">
-        <v>0.7818432552287572</v>
+        <v>0.8417855322121204</v>
       </c>
       <c r="G15">
         <v>0.8329355723140562</v>
@@ -1436,10 +1388,10 @@
         <v>1.150130735975715</v>
       </c>
       <c r="I15">
+        <v>0.7818432552287572</v>
+      </c>
+      <c r="J15">
         <v>0.9749389297154238</v>
-      </c>
-      <c r="J15">
-        <v>0.8417855322121205</v>
       </c>
       <c r="K15">
         <v>0.7818432552287572</v>
@@ -1448,10 +1400,10 @@
         <v>1.051784475542883</v>
       </c>
       <c r="M15">
-        <v>0.9467850038775016</v>
+        <v>0.9467850038775015</v>
       </c>
       <c r="N15">
-        <v>0.9467850038775016</v>
+        <v>0.9467850038775015</v>
       </c>
       <c r="O15">
         <v>1.014566914576906</v>
@@ -1460,19 +1412,19 @@
         <v>0.8918044209945868</v>
       </c>
       <c r="Q15">
-        <v>0.8918044209945869</v>
+        <v>0.8918044209945867</v>
       </c>
       <c r="R15">
-        <v>0.8643141295531295</v>
+        <v>0.8643141295531293</v>
       </c>
       <c r="S15">
-        <v>0.8643141295531295</v>
+        <v>0.8643141295531293</v>
       </c>
       <c r="T15">
-        <v>0.9389030834981593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9389030834981592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9940819185932098</v>
+        <v>0.3468737822869906</v>
       </c>
       <c r="D16">
-        <v>1.000924927595751</v>
+        <v>1.064982177620622</v>
       </c>
       <c r="E16">
-        <v>1.002626968185683</v>
+        <v>1.378295427620319</v>
       </c>
       <c r="F16">
-        <v>0.9940819185932098</v>
+        <v>0.3468737822869906</v>
       </c>
       <c r="G16">
-        <v>1.004797546611939</v>
+        <v>1.093778157477495</v>
       </c>
       <c r="H16">
-        <v>1.000163339636689</v>
+        <v>0.68313051617231</v>
       </c>
       <c r="I16">
-        <v>0.99995411413679</v>
+        <v>1.378295427620319</v>
       </c>
       <c r="J16">
-        <v>1.000924927595751</v>
+        <v>1.152959396003497</v>
       </c>
       <c r="K16">
-        <v>0.9940819185932098</v>
+        <v>1.378295427620319</v>
       </c>
       <c r="L16">
-        <v>1.002626968185683</v>
+        <v>1.064982177620622</v>
       </c>
       <c r="M16">
-        <v>1.001775947890717</v>
+        <v>0.7059279799538063</v>
       </c>
       <c r="N16">
-        <v>1.001775947890717</v>
+        <v>0.7059279799538063</v>
       </c>
       <c r="O16">
-        <v>1.001238411806041</v>
+        <v>0.6983288253599742</v>
       </c>
       <c r="P16">
-        <v>0.9992112714582144</v>
+        <v>0.9300504625093104</v>
       </c>
       <c r="Q16">
-        <v>0.9992112714582143</v>
+        <v>0.9300504625093104</v>
       </c>
       <c r="R16">
-        <v>0.9979289332419632</v>
+        <v>1.042111703787063</v>
       </c>
       <c r="S16">
-        <v>0.9979289332419632</v>
+        <v>1.042111703787063</v>
       </c>
       <c r="T16">
-        <v>1.00042480246001</v>
+        <v>0.9533365761968722</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.007252790124973</v>
+        <v>0.5065817761169384</v>
       </c>
       <c r="D17">
-        <v>0.9965985345789835</v>
+        <v>1.074742172087963</v>
       </c>
       <c r="E17">
-        <v>0.9975083762616221</v>
+        <v>1.237233020514873</v>
       </c>
       <c r="F17">
-        <v>1.007252790124973</v>
+        <v>0.5065817761169384</v>
       </c>
       <c r="G17">
-        <v>0.9969893294093818</v>
+        <v>1.159064885936552</v>
       </c>
       <c r="H17">
-        <v>0.9985787378442932</v>
+        <v>0.7457627724028033</v>
       </c>
       <c r="I17">
-        <v>1.000493588642274</v>
+        <v>1.237233020514873</v>
       </c>
       <c r="J17">
-        <v>0.9965985345789835</v>
+        <v>1.118885039662127</v>
       </c>
       <c r="K17">
-        <v>1.007252790124973</v>
+        <v>1.237233020514873</v>
       </c>
       <c r="L17">
-        <v>0.9975083762616221</v>
+        <v>1.074742172087963</v>
       </c>
       <c r="M17">
-        <v>0.9970534554203028</v>
+        <v>0.7906619741024508</v>
       </c>
       <c r="N17">
-        <v>0.9970534554203028</v>
+        <v>0.7906619741024508</v>
       </c>
       <c r="O17">
-        <v>0.9975618828949662</v>
+        <v>0.7756955735359016</v>
       </c>
       <c r="P17">
-        <v>1.000453233655193</v>
+        <v>0.9395189895732582</v>
       </c>
       <c r="Q17">
-        <v>1.000453233655193</v>
+        <v>0.9395189895732582</v>
       </c>
       <c r="R17">
-        <v>1.002153122772638</v>
+        <v>1.013947497308662</v>
       </c>
       <c r="S17">
-        <v>1.002153122772638</v>
+        <v>1.013947497308662</v>
       </c>
       <c r="T17">
-        <v>0.999570226143588</v>
+        <v>0.9737116111202097</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9926607096216354</v>
+        <v>0.8255199929656544</v>
       </c>
       <c r="D18">
-        <v>0.9918426011600969</v>
+        <v>1.092902826199503</v>
       </c>
       <c r="E18">
-        <v>1.00824239562939</v>
+        <v>0.9583099032556361</v>
       </c>
       <c r="F18">
-        <v>0.9926607096216354</v>
+        <v>0.8255199929656544</v>
       </c>
       <c r="G18">
-        <v>1.013271013946519</v>
+        <v>1.285657117161869</v>
       </c>
       <c r="H18">
-        <v>0.9948652784591105</v>
+        <v>0.8713099411825325</v>
       </c>
       <c r="I18">
-        <v>1.002026971633378</v>
+        <v>0.9583099032556361</v>
       </c>
       <c r="J18">
-        <v>0.9918426011600969</v>
+        <v>1.050679918564948</v>
       </c>
       <c r="K18">
-        <v>0.9926607096216354</v>
+        <v>0.9583099032556361</v>
       </c>
       <c r="L18">
-        <v>1.00824239562939</v>
+        <v>1.092902826199503</v>
       </c>
       <c r="M18">
-        <v>1.000042498394744</v>
+        <v>0.9592114095825786</v>
       </c>
       <c r="N18">
-        <v>1.000042498394744</v>
+        <v>0.9592114095825786</v>
       </c>
       <c r="O18">
-        <v>0.9983167584161995</v>
+        <v>0.9299109201158965</v>
       </c>
       <c r="P18">
-        <v>0.997581902137041</v>
+        <v>0.9589109074735976</v>
       </c>
       <c r="Q18">
-        <v>0.9975819021370409</v>
+        <v>0.9589109074735976</v>
       </c>
       <c r="R18">
-        <v>0.9963516040081896</v>
+        <v>0.9587606564191073</v>
       </c>
       <c r="S18">
-        <v>0.9963516040081896</v>
+        <v>0.9587606564191073</v>
       </c>
       <c r="T18">
-        <v>1.000484828408355</v>
+        <v>1.01406328322169</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8285557996391096</v>
+      </c>
+      <c r="D19">
+        <v>1.115857748278922</v>
+      </c>
+      <c r="E19">
+        <v>0.9174383592182578</v>
+      </c>
+      <c r="F19">
+        <v>0.8285557996391096</v>
+      </c>
+      <c r="G19">
+        <v>1.352863136104446</v>
+      </c>
+      <c r="H19">
+        <v>0.8598187922651273</v>
+      </c>
+      <c r="I19">
+        <v>0.9174383592182578</v>
+      </c>
+      <c r="J19">
+        <v>1.05352039565076</v>
+      </c>
+      <c r="K19">
+        <v>0.9174383592182578</v>
+      </c>
+      <c r="L19">
+        <v>1.115857748278922</v>
+      </c>
+      <c r="M19">
+        <v>0.9722067739590157</v>
+      </c>
+      <c r="N19">
+        <v>0.9722067739590157</v>
+      </c>
+      <c r="O19">
+        <v>0.9347441133943862</v>
+      </c>
+      <c r="P19">
+        <v>0.9539506357120965</v>
+      </c>
+      <c r="Q19">
+        <v>0.9539506357120965</v>
+      </c>
+      <c r="R19">
+        <v>0.9448225665886367</v>
+      </c>
+      <c r="S19">
+        <v>0.9448225665886367</v>
+      </c>
+      <c r="T19">
+        <v>1.021342371859437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.00092492759575</v>
+      </c>
+      <c r="D20">
+        <v>1.002626968185683</v>
+      </c>
+      <c r="E20">
+        <v>0.9940819185932104</v>
+      </c>
+      <c r="F20">
+        <v>1.00092492759575</v>
+      </c>
+      <c r="G20">
+        <v>1.004797546611939</v>
+      </c>
+      <c r="H20">
+        <v>1.000163339636689</v>
+      </c>
+      <c r="I20">
+        <v>0.9940819185932104</v>
+      </c>
+      <c r="J20">
+        <v>0.9999541141367898</v>
+      </c>
+      <c r="K20">
+        <v>0.9940819185932104</v>
+      </c>
+      <c r="L20">
+        <v>1.002626968185683</v>
+      </c>
+      <c r="M20">
+        <v>1.001775947890716</v>
+      </c>
+      <c r="N20">
+        <v>1.001775947890716</v>
+      </c>
+      <c r="O20">
+        <v>1.00123841180604</v>
+      </c>
+      <c r="P20">
+        <v>0.9992112714582143</v>
+      </c>
+      <c r="Q20">
+        <v>0.9992112714582143</v>
+      </c>
+      <c r="R20">
+        <v>0.9979289332419633</v>
+      </c>
+      <c r="S20">
+        <v>0.9979289332419633</v>
+      </c>
+      <c r="T20">
+        <v>1.00042480246001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9965985345789827</v>
+      </c>
+      <c r="D21">
+        <v>0.9975083762616219</v>
+      </c>
+      <c r="E21">
+        <v>1.007252790124974</v>
+      </c>
+      <c r="F21">
+        <v>0.9965985345789827</v>
+      </c>
+      <c r="G21">
+        <v>0.9969893294093818</v>
+      </c>
+      <c r="H21">
+        <v>0.9985787378442932</v>
+      </c>
+      <c r="I21">
+        <v>1.007252790124974</v>
+      </c>
+      <c r="J21">
+        <v>1.000493588642274</v>
+      </c>
+      <c r="K21">
+        <v>1.007252790124974</v>
+      </c>
+      <c r="L21">
+        <v>0.9975083762616219</v>
+      </c>
+      <c r="M21">
+        <v>0.9970534554203023</v>
+      </c>
+      <c r="N21">
+        <v>0.9970534554203023</v>
+      </c>
+      <c r="O21">
+        <v>0.9975618828949658</v>
+      </c>
+      <c r="P21">
+        <v>1.000453233655193</v>
+      </c>
+      <c r="Q21">
+        <v>1.000453233655193</v>
+      </c>
+      <c r="R21">
+        <v>1.002153122772638</v>
+      </c>
+      <c r="S21">
+        <v>1.002153122772638</v>
+      </c>
+      <c r="T21">
+        <v>0.9995702261435877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9918426011600958</v>
+      </c>
+      <c r="D22">
+        <v>1.00824239562939</v>
+      </c>
+      <c r="E22">
+        <v>0.9926607096216356</v>
+      </c>
+      <c r="F22">
+        <v>0.9918426011600958</v>
+      </c>
+      <c r="G22">
+        <v>1.013271013946519</v>
+      </c>
+      <c r="H22">
+        <v>0.9948652784591105</v>
+      </c>
+      <c r="I22">
+        <v>0.9926607096216356</v>
+      </c>
+      <c r="J22">
+        <v>1.002026971633378</v>
+      </c>
+      <c r="K22">
+        <v>0.9926607096216356</v>
+      </c>
+      <c r="L22">
+        <v>1.00824239562939</v>
+      </c>
+      <c r="M22">
+        <v>1.000042498394743</v>
+      </c>
+      <c r="N22">
+        <v>1.000042498394743</v>
+      </c>
+      <c r="O22">
+        <v>0.9983167584161988</v>
+      </c>
+      <c r="P22">
+        <v>0.9975819021370405</v>
+      </c>
+      <c r="Q22">
+        <v>0.9975819021370405</v>
+      </c>
+      <c r="R22">
+        <v>0.9963516040081892</v>
+      </c>
+      <c r="S22">
+        <v>0.9963516040081892</v>
+      </c>
+      <c r="T22">
+        <v>1.000484828408355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.979132868425156</v>
+      </c>
+      <c r="D23">
+        <v>1.02823048696984</v>
+      </c>
+      <c r="E23">
         <v>0.9579639161002264</v>
       </c>
-      <c r="D19">
+      <c r="F23">
         <v>0.979132868425156</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.039539259497659</v>
+      </c>
+      <c r="H23">
+        <v>0.9896174577150333</v>
+      </c>
+      <c r="I23">
+        <v>0.9579639161002264</v>
+      </c>
+      <c r="J23">
+        <v>1.006971569602191</v>
+      </c>
+      <c r="K23">
+        <v>0.9579639161002264</v>
+      </c>
+      <c r="L23">
         <v>1.02823048696984</v>
       </c>
-      <c r="F19">
-        <v>0.9579639161002264</v>
-      </c>
-      <c r="G19">
-        <v>1.039539259497659</v>
-      </c>
-      <c r="H19">
-        <v>0.9896174577150333</v>
-      </c>
-      <c r="I19">
-        <v>1.006971569602191</v>
-      </c>
-      <c r="J19">
-        <v>0.979132868425156</v>
-      </c>
-      <c r="K19">
-        <v>0.9579639161002264</v>
-      </c>
-      <c r="L19">
-        <v>1.02823048696984</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.003681677697498</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.003681677697498</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9989936043700097</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9884424238317407</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9884424238317407</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9808227968988621</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9808227968988621</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000242593051684</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9655475246610952</v>
+        <v>0.7833559280946657</v>
       </c>
       <c r="D3">
-        <v>1.002872096663183</v>
+        <v>1.109794617608067</v>
       </c>
       <c r="E3">
-        <v>1.021319841602998</v>
+        <v>0.9610976419164261</v>
       </c>
       <c r="F3">
-        <v>0.9655475246610952</v>
+        <v>0.7833559280946657</v>
       </c>
       <c r="G3">
-        <v>1.002777549217559</v>
+        <v>1.332818137093658</v>
       </c>
       <c r="H3">
-        <v>0.9835133290845978</v>
+        <v>0.8434241750763689</v>
       </c>
       <c r="I3">
-        <v>1.021319841602998</v>
+        <v>0.9610976419164261</v>
       </c>
       <c r="J3">
-        <v>1.007990835033593</v>
+        <v>1.062182030129683</v>
       </c>
       <c r="K3">
-        <v>1.021319841602998</v>
+        <v>0.9610976419164261</v>
       </c>
       <c r="L3">
-        <v>1.002872096663183</v>
+        <v>1.109794617608067</v>
       </c>
       <c r="M3">
-        <v>0.9842098106621393</v>
+        <v>0.9465752728513666</v>
       </c>
       <c r="N3">
-        <v>0.9842098106621393</v>
+        <v>0.9465752728513666</v>
       </c>
       <c r="O3">
-        <v>0.9839776501362921</v>
+        <v>0.912191573593034</v>
       </c>
       <c r="P3">
-        <v>0.9965798209757589</v>
+        <v>0.9514160625397198</v>
       </c>
       <c r="Q3">
-        <v>0.9965798209757589</v>
+        <v>0.9514160625397197</v>
       </c>
       <c r="R3">
-        <v>1.002764826132569</v>
+        <v>0.9538364573838962</v>
       </c>
       <c r="S3">
-        <v>1.002764826132569</v>
+        <v>0.9538364573838962</v>
       </c>
       <c r="T3">
-        <v>0.9973368627105045</v>
+        <v>1.015445421653145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9334526809613151</v>
+        <v>0.8068569935248227</v>
       </c>
       <c r="D4">
-        <v>1.005172150594626</v>
+        <v>1.101594764146473</v>
       </c>
       <c r="E4">
-        <v>1.042088820508054</v>
+        <v>0.9568616037793524</v>
       </c>
       <c r="F4">
-        <v>0.9334526809613151</v>
+        <v>0.8068569935248227</v>
       </c>
       <c r="G4">
-        <v>1.005010421651394</v>
+        <v>1.309364084327998</v>
       </c>
       <c r="H4">
-        <v>0.9681185213791522</v>
+        <v>0.858691999665114</v>
       </c>
       <c r="I4">
-        <v>1.042088820508054</v>
+        <v>0.9568616037793524</v>
       </c>
       <c r="J4">
-        <v>1.015351660763253</v>
+        <v>1.055947995355938</v>
       </c>
       <c r="K4">
-        <v>1.042088820508054</v>
+        <v>0.9568616037793524</v>
       </c>
       <c r="L4">
-        <v>1.005172150594626</v>
+        <v>1.101594764146473</v>
       </c>
       <c r="M4">
-        <v>0.9693124157779706</v>
+        <v>0.9542258788356479</v>
       </c>
       <c r="N4">
-        <v>0.9693124157779706</v>
+        <v>0.9542258788356479</v>
       </c>
       <c r="O4">
-        <v>0.9689144509783644</v>
+        <v>0.92238125244547</v>
       </c>
       <c r="P4">
-        <v>0.993571217354665</v>
+        <v>0.9551044538168827</v>
       </c>
       <c r="Q4">
-        <v>0.993571217354665</v>
+        <v>0.9551044538168827</v>
       </c>
       <c r="R4">
-        <v>1.005700618143012</v>
+        <v>0.9555437413075001</v>
       </c>
       <c r="S4">
-        <v>1.005700618143012</v>
+        <v>0.9555437413075001</v>
       </c>
       <c r="T4">
-        <v>0.9948657093096324</v>
+        <v>1.014886240133283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8747217146156244</v>
+        <v>0.7393220348409699</v>
       </c>
       <c r="D5">
-        <v>1.011390482347434</v>
+        <v>1.12527583439353</v>
       </c>
       <c r="E5">
-        <v>1.076452611123887</v>
+        <v>0.9690890269541788</v>
       </c>
       <c r="F5">
-        <v>0.8747217146156244</v>
+        <v>0.7393220348409699</v>
       </c>
       <c r="G5">
-        <v>1.013568731571547</v>
+        <v>1.377880492371964</v>
       </c>
       <c r="H5">
-        <v>0.9388417576007501</v>
+        <v>0.8145170027654987</v>
       </c>
       <c r="I5">
-        <v>1.076452611123887</v>
+        <v>0.9690890269541788</v>
       </c>
       <c r="J5">
-        <v>1.029302912275523</v>
+        <v>1.073855368463612</v>
       </c>
       <c r="K5">
-        <v>1.076452611123887</v>
+        <v>0.9690890269541788</v>
       </c>
       <c r="L5">
-        <v>1.011390482347434</v>
+        <v>1.12527583439353</v>
       </c>
       <c r="M5">
-        <v>0.9430560984815293</v>
+        <v>0.93229893461725</v>
       </c>
       <c r="N5">
-        <v>0.9430560984815293</v>
+        <v>0.93229893461725</v>
       </c>
       <c r="O5">
-        <v>0.9416513181879362</v>
+        <v>0.8930382906666662</v>
       </c>
       <c r="P5">
-        <v>0.9875216026956485</v>
+        <v>0.9445622987295597</v>
       </c>
       <c r="Q5">
-        <v>0.9875216026956485</v>
+        <v>0.9445622987295597</v>
       </c>
       <c r="R5">
-        <v>1.009754354802708</v>
+        <v>0.9506939807857144</v>
       </c>
       <c r="S5">
-        <v>1.009754354802708</v>
+        <v>0.9506939807857144</v>
       </c>
       <c r="T5">
-        <v>0.9907130349224609</v>
+        <v>1.016656626631626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8218359198133741</v>
+        <v>0.6989178908340908</v>
       </c>
       <c r="D6">
-        <v>1.017046889176577</v>
+        <v>1.139622137670453</v>
       </c>
       <c r="E6">
-        <v>1.108956091458279</v>
+        <v>0.9764871617045451</v>
       </c>
       <c r="F6">
-        <v>0.8218359198133741</v>
+        <v>0.6989178908340908</v>
       </c>
       <c r="G6">
-        <v>1.024180909524</v>
+        <v>1.420574118340909</v>
       </c>
       <c r="H6">
-        <v>0.9073344754041363</v>
+        <v>0.7876312136704543</v>
       </c>
       <c r="I6">
-        <v>1.108956091458279</v>
+        <v>0.9764871617045451</v>
       </c>
       <c r="J6">
-        <v>1.043302368877623</v>
+        <v>1.084557595681818</v>
       </c>
       <c r="K6">
-        <v>1.108956091458279</v>
+        <v>0.9764871617045451</v>
       </c>
       <c r="L6">
-        <v>1.017046889176577</v>
+        <v>1.139622137670453</v>
       </c>
       <c r="M6">
-        <v>0.9194414044949755</v>
+        <v>0.9192700142522721</v>
       </c>
       <c r="N6">
-        <v>0.9194414044949755</v>
+        <v>0.9192700142522721</v>
       </c>
       <c r="O6">
-        <v>0.9154057614646957</v>
+        <v>0.8753904140583328</v>
       </c>
       <c r="P6">
-        <v>0.9826129668160766</v>
+        <v>0.938342396736363</v>
       </c>
       <c r="Q6">
-        <v>0.9826129668160767</v>
+        <v>0.938342396736363</v>
       </c>
       <c r="R6">
-        <v>1.014198747976627</v>
+        <v>0.9478785879784085</v>
       </c>
       <c r="S6">
-        <v>1.014198747976627</v>
+        <v>0.9478785879784085</v>
       </c>
       <c r="T6">
-        <v>0.9871094423756649</v>
+        <v>1.017965019650378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9987746314075779</v>
+        <v>0.1387907699002985</v>
       </c>
       <c r="D7">
-        <v>1.000754116266385</v>
+        <v>1.02353151660318</v>
       </c>
       <c r="E7">
-        <v>0.99967718789796</v>
+        <v>1.737016402196215</v>
       </c>
       <c r="F7">
-        <v>0.9987746314075779</v>
+        <v>0.1387907699002985</v>
       </c>
       <c r="G7">
-        <v>1.002545268904795</v>
+        <v>0.830198054430252</v>
       </c>
       <c r="H7">
-        <v>0.9989440016451887</v>
+        <v>0.5623493331950647</v>
       </c>
       <c r="I7">
-        <v>0.99967718789796</v>
+        <v>1.737016402196215</v>
       </c>
       <c r="J7">
-        <v>1.000362493710586</v>
+        <v>1.219919264606265</v>
       </c>
       <c r="K7">
-        <v>0.99967718789796</v>
+        <v>1.737016402196215</v>
       </c>
       <c r="L7">
-        <v>1.000754116266385</v>
+        <v>1.02353151660318</v>
       </c>
       <c r="M7">
-        <v>0.9997643738369815</v>
+        <v>0.581161143251739</v>
       </c>
       <c r="N7">
-        <v>0.9997643738369815</v>
+        <v>0.581161143251739</v>
       </c>
       <c r="O7">
-        <v>0.9994909164397172</v>
+        <v>0.5748905398995142</v>
       </c>
       <c r="P7">
-        <v>0.9997353118573077</v>
+        <v>0.9664462295665643</v>
       </c>
       <c r="Q7">
-        <v>0.9997353118573077</v>
+        <v>0.9664462295665643</v>
       </c>
       <c r="R7">
-        <v>0.9997207808674707</v>
+        <v>1.159088772723977</v>
       </c>
       <c r="S7">
-        <v>0.9997207808674707</v>
+        <v>1.159088772723977</v>
       </c>
       <c r="T7">
-        <v>1.000176283305416</v>
+        <v>0.9186342234885457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9963477495736608</v>
+        <v>0.1381790328212602</v>
       </c>
       <c r="D8">
-        <v>1.001742538213956</v>
+        <v>1.025260583810281</v>
       </c>
       <c r="E8">
-        <v>0.9998952518266523</v>
+        <v>1.734817177724657</v>
       </c>
       <c r="F8">
-        <v>0.9963477495736608</v>
+        <v>0.1381790328212602</v>
       </c>
       <c r="G8">
-        <v>1.005954018670496</v>
+        <v>0.8386271506438306</v>
       </c>
       <c r="H8">
-        <v>0.9971809328567862</v>
+        <v>0.5605527217747885</v>
       </c>
       <c r="I8">
-        <v>0.9998952518266523</v>
+        <v>1.734817177724657</v>
       </c>
       <c r="J8">
-        <v>1.001004008152047</v>
+        <v>1.220061277149977</v>
       </c>
       <c r="K8">
-        <v>0.9998952518266523</v>
+        <v>1.734817177724657</v>
       </c>
       <c r="L8">
-        <v>1.001742538213956</v>
+        <v>1.025260583810281</v>
       </c>
       <c r="M8">
-        <v>0.9990451438938084</v>
+        <v>0.5817198083157706</v>
       </c>
       <c r="N8">
-        <v>0.9990451438938084</v>
+        <v>0.5817198083157706</v>
       </c>
       <c r="O8">
-        <v>0.998423740214801</v>
+        <v>0.5746641128021099</v>
       </c>
       <c r="P8">
-        <v>0.9993285132047564</v>
+        <v>0.9660855981187328</v>
       </c>
       <c r="Q8">
-        <v>0.9993285132047562</v>
+        <v>0.9660855981187328</v>
       </c>
       <c r="R8">
-        <v>0.9994701978602303</v>
+        <v>1.158268493020214</v>
       </c>
       <c r="S8">
-        <v>0.9994701978602303</v>
+        <v>1.158268493020214</v>
       </c>
       <c r="T8">
-        <v>1.0003540832156</v>
+        <v>0.9195829906541325</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9946141678520626</v>
+        <v>0.1378266466908148</v>
       </c>
       <c r="D9">
-        <v>1.001812728005449</v>
+        <v>1.028257223399315</v>
       </c>
       <c r="E9">
-        <v>1.001397553540039</v>
+        <v>1.729274217824049</v>
       </c>
       <c r="F9">
-        <v>0.9946141678520626</v>
+        <v>0.1378266466908148</v>
       </c>
       <c r="G9">
-        <v>1.007194332561831</v>
+        <v>0.8485118716685494</v>
       </c>
       <c r="H9">
-        <v>0.9960343142406762</v>
+        <v>0.5591794248228057</v>
       </c>
       <c r="I9">
-        <v>1.001397553540039</v>
+        <v>1.729274217824049</v>
       </c>
       <c r="J9">
-        <v>1.001348951241553</v>
+        <v>1.220240501893802</v>
       </c>
       <c r="K9">
-        <v>1.001397553540039</v>
+        <v>1.729274217824049</v>
       </c>
       <c r="L9">
-        <v>1.001812728005449</v>
+        <v>1.028257223399315</v>
       </c>
       <c r="M9">
-        <v>0.9982134479287557</v>
+        <v>0.5830419350450651</v>
       </c>
       <c r="N9">
-        <v>0.9982134479287557</v>
+        <v>0.5830419350450651</v>
       </c>
       <c r="O9">
-        <v>0.9974870700327291</v>
+        <v>0.5750877649709786</v>
       </c>
       <c r="P9">
-        <v>0.9992748164658503</v>
+        <v>0.9651193626380596</v>
       </c>
       <c r="Q9">
-        <v>0.9992748164658503</v>
+        <v>0.9651193626380596</v>
       </c>
       <c r="R9">
-        <v>0.9998055007343976</v>
+        <v>1.156158076434557</v>
       </c>
       <c r="S9">
-        <v>0.9998055007343976</v>
+        <v>1.156158076434557</v>
       </c>
       <c r="T9">
-        <v>1.000400341240268</v>
+        <v>0.9205483143832226</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.988964241561173</v>
+        <v>0.1362995151161444</v>
       </c>
       <c r="D10">
-        <v>1.004499356293827</v>
+        <v>1.0281373962084</v>
       </c>
       <c r="E10">
-        <v>1.001234787803666</v>
+        <v>1.734616880783396</v>
       </c>
       <c r="F10">
-        <v>0.988964241561173</v>
+        <v>0.1362995151161444</v>
       </c>
       <c r="G10">
-        <v>1.01729390290549</v>
+        <v>0.8598977230262929</v>
       </c>
       <c r="H10">
-        <v>0.9915556941182255</v>
+        <v>0.5555909073070291</v>
       </c>
       <c r="I10">
-        <v>1.001234787803666</v>
+        <v>1.734616880783396</v>
       </c>
       <c r="J10">
-        <v>1.002839956079332</v>
+        <v>1.219642267468903</v>
       </c>
       <c r="K10">
-        <v>1.001234787803666</v>
+        <v>1.734616880783396</v>
       </c>
       <c r="L10">
-        <v>1.004499356293827</v>
+        <v>1.0281373962084</v>
       </c>
       <c r="M10">
-        <v>0.9967317989275</v>
+        <v>0.5822184556622719</v>
       </c>
       <c r="N10">
-        <v>0.9967317989275</v>
+        <v>0.5822184556622719</v>
       </c>
       <c r="O10">
-        <v>0.9950064306577419</v>
+        <v>0.5733426062105244</v>
       </c>
       <c r="P10">
-        <v>0.9982327952195553</v>
+        <v>0.9663512640359798</v>
       </c>
       <c r="Q10">
-        <v>0.9982327952195553</v>
+        <v>0.9663512640359798</v>
       </c>
       <c r="R10">
-        <v>0.998983293365583</v>
+        <v>1.158417668222834</v>
       </c>
       <c r="S10">
-        <v>0.998983293365583</v>
+        <v>1.158417668222834</v>
       </c>
       <c r="T10">
-        <v>1.001064656460285</v>
+        <v>0.9223641149850276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9809538788644676</v>
+        <v>0.9604978099470423</v>
       </c>
       <c r="D11">
-        <v>1.006050471235942</v>
+        <v>1.001944084904166</v>
       </c>
       <c r="E11">
-        <v>1.006379860594387</v>
+        <v>1.027458882817283</v>
       </c>
       <c r="F11">
-        <v>0.9809538788644676</v>
+        <v>0.9604978099470423</v>
       </c>
       <c r="G11">
-        <v>1.024596735660762</v>
+        <v>1.001326286449757</v>
       </c>
       <c r="H11">
-        <v>0.9856099764001238</v>
+        <v>0.9806809459149785</v>
       </c>
       <c r="I11">
-        <v>1.006379860594387</v>
+        <v>1.027458882817283</v>
       </c>
       <c r="J11">
-        <v>1.004926986959259</v>
+        <v>1.009356537232187</v>
       </c>
       <c r="K11">
-        <v>1.006379860594387</v>
+        <v>1.027458882817283</v>
       </c>
       <c r="L11">
-        <v>1.006050471235942</v>
+        <v>1.001944084904166</v>
       </c>
       <c r="M11">
-        <v>0.993502175050205</v>
+        <v>0.9812209474256043</v>
       </c>
       <c r="N11">
-        <v>0.993502175050205</v>
+        <v>0.9812209474256043</v>
       </c>
       <c r="O11">
-        <v>0.9908714421668446</v>
+        <v>0.9810409469220623</v>
       </c>
       <c r="P11">
-        <v>0.9977947368982658</v>
+        <v>0.9966335925561639</v>
       </c>
       <c r="Q11">
-        <v>0.9977947368982658</v>
+        <v>0.9966335925561639</v>
       </c>
       <c r="R11">
-        <v>0.9999410178222962</v>
+        <v>1.004339915121444</v>
       </c>
       <c r="S11">
-        <v>0.9999410178222962</v>
+        <v>1.004339915121444</v>
       </c>
       <c r="T11">
-        <v>1.001419651619157</v>
+        <v>0.9968774245442357</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9802252549497712</v>
+        <v>0.9785289340919262</v>
       </c>
       <c r="D12">
-        <v>0.9602546650083731</v>
+        <v>1.001778116735567</v>
       </c>
       <c r="E12">
-        <v>0.9690644164062651</v>
+        <v>1.013598221019235</v>
       </c>
       <c r="F12">
-        <v>0.9802252549497712</v>
+        <v>0.9785289340919262</v>
       </c>
       <c r="G12">
-        <v>0.5807377993154514</v>
+        <v>1.0005749807435</v>
       </c>
       <c r="H12">
-        <v>1.175046938473264</v>
+        <v>0.9898265360150595</v>
       </c>
       <c r="I12">
-        <v>0.9690644164062651</v>
+        <v>1.013598221019235</v>
       </c>
       <c r="J12">
-        <v>0.9636430330401394</v>
+        <v>1.005059390853406</v>
       </c>
       <c r="K12">
-        <v>0.9690644164062651</v>
+        <v>1.013598221019235</v>
       </c>
       <c r="L12">
-        <v>0.9602546650083731</v>
+        <v>1.001778116735567</v>
       </c>
       <c r="M12">
-        <v>0.9702399599790721</v>
+        <v>0.9901535254137468</v>
       </c>
       <c r="N12">
-        <v>0.9702399599790721</v>
+        <v>0.9901535254137468</v>
       </c>
       <c r="O12">
-        <v>1.038508952810469</v>
+        <v>0.9900445289475176</v>
       </c>
       <c r="P12">
-        <v>0.9698481121214697</v>
+        <v>0.9979684239489096</v>
       </c>
       <c r="Q12">
-        <v>0.9698481121214698</v>
+        <v>0.9979684239489096</v>
       </c>
       <c r="R12">
-        <v>0.9696521881926686</v>
+        <v>1.001875873216491</v>
       </c>
       <c r="S12">
-        <v>0.9696521881926686</v>
+        <v>1.001875873216491</v>
       </c>
       <c r="T12">
-        <v>0.938162017865544</v>
+        <v>0.9982276965764491</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.366709105250883</v>
+        <v>0.9264902554686441</v>
       </c>
       <c r="D13">
-        <v>0.9050363461714496</v>
+        <v>1.006151411350755</v>
       </c>
       <c r="E13">
-        <v>1.052375073598307</v>
+        <v>1.045966867181723</v>
       </c>
       <c r="F13">
-        <v>1.366709105250883</v>
+        <v>0.9264902554686441</v>
       </c>
       <c r="G13">
-        <v>1.095215812843656</v>
+        <v>0.9986404327111773</v>
       </c>
       <c r="H13">
-        <v>1.014476184280964</v>
+        <v>0.965959940348377</v>
       </c>
       <c r="I13">
-        <v>1.052375073598307</v>
+        <v>1.045966867181723</v>
       </c>
       <c r="J13">
-        <v>0.9490405117343005</v>
+        <v>1.017475345484945</v>
       </c>
       <c r="K13">
-        <v>1.052375073598307</v>
+        <v>1.045966867181723</v>
       </c>
       <c r="L13">
-        <v>0.9050363461714496</v>
+        <v>1.006151411350755</v>
       </c>
       <c r="M13">
-        <v>1.135872725711166</v>
+        <v>0.9663208334096993</v>
       </c>
       <c r="N13">
-        <v>1.135872725711166</v>
+        <v>0.9663208334096993</v>
       </c>
       <c r="O13">
-        <v>1.095407211901099</v>
+        <v>0.9662005357225919</v>
       </c>
       <c r="P13">
-        <v>1.10804017500688</v>
+        <v>0.9928695113337073</v>
       </c>
       <c r="Q13">
-        <v>1.10804017500688</v>
+        <v>0.9928695113337073</v>
       </c>
       <c r="R13">
-        <v>1.094123899654737</v>
+        <v>1.006143850295711</v>
       </c>
       <c r="S13">
-        <v>1.094123899654737</v>
+        <v>1.006143850295711</v>
       </c>
       <c r="T13">
-        <v>1.063808838979927</v>
+        <v>0.9934473754242701</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.96233846481208</v>
+        <v>0.9051745680742236</v>
       </c>
       <c r="D14">
-        <v>0.7440129901615185</v>
+        <v>1.008560411282497</v>
       </c>
       <c r="E14">
-        <v>0.9526359153981008</v>
+        <v>1.057314606485764</v>
       </c>
       <c r="F14">
-        <v>1.96233846481208</v>
+        <v>0.9051745680742236</v>
       </c>
       <c r="G14">
-        <v>0.6202844476594191</v>
+        <v>1.010365801778674</v>
       </c>
       <c r="H14">
-        <v>1.348812791764563</v>
+        <v>0.9543340305203695</v>
       </c>
       <c r="I14">
-        <v>0.9526359153981008</v>
+        <v>1.057314606485764</v>
       </c>
       <c r="J14">
-        <v>0.8012109449619563</v>
+        <v>1.022076376758523</v>
       </c>
       <c r="K14">
-        <v>0.9526359153981008</v>
+        <v>1.057314606485764</v>
       </c>
       <c r="L14">
-        <v>0.7440129901615185</v>
+        <v>1.008560411282497</v>
       </c>
       <c r="M14">
-        <v>1.353175727486799</v>
+        <v>0.9568674896783603</v>
       </c>
       <c r="N14">
-        <v>1.353175727486799</v>
+        <v>0.9568674896783603</v>
       </c>
       <c r="O14">
-        <v>1.351721415579387</v>
+        <v>0.9560230032923633</v>
       </c>
       <c r="P14">
-        <v>1.219662456790566</v>
+        <v>0.990349861947495</v>
       </c>
       <c r="Q14">
-        <v>1.219662456790567</v>
+        <v>0.990349861947495</v>
       </c>
       <c r="R14">
-        <v>1.15290582144245</v>
+        <v>1.007091048082062</v>
       </c>
       <c r="S14">
-        <v>1.15290582144245</v>
+        <v>1.007091048082062</v>
       </c>
       <c r="T14">
-        <v>1.071549259126273</v>
+        <v>0.9929709658166753</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8417855322121204</v>
+        <v>0.9655475246610952</v>
       </c>
       <c r="D15">
-        <v>1.051784475542883</v>
+        <v>1.002872096663183</v>
       </c>
       <c r="E15">
-        <v>0.7818432552287572</v>
+        <v>1.021319841602998</v>
       </c>
       <c r="F15">
-        <v>0.8417855322121204</v>
+        <v>0.9655475246610952</v>
       </c>
       <c r="G15">
-        <v>0.8329355723140562</v>
+        <v>1.002777549217559</v>
       </c>
       <c r="H15">
-        <v>1.150130735975715</v>
+        <v>0.9835133290845978</v>
       </c>
       <c r="I15">
-        <v>0.7818432552287572</v>
+        <v>1.021319841602998</v>
       </c>
       <c r="J15">
-        <v>0.9749389297154238</v>
+        <v>1.007990835033593</v>
       </c>
       <c r="K15">
-        <v>0.7818432552287572</v>
+        <v>1.021319841602998</v>
       </c>
       <c r="L15">
-        <v>1.051784475542883</v>
+        <v>1.002872096663183</v>
       </c>
       <c r="M15">
-        <v>0.9467850038775015</v>
+        <v>0.9842098106621393</v>
       </c>
       <c r="N15">
-        <v>0.9467850038775015</v>
+        <v>0.9842098106621393</v>
       </c>
       <c r="O15">
-        <v>1.014566914576906</v>
+        <v>0.9839776501362921</v>
       </c>
       <c r="P15">
-        <v>0.8918044209945868</v>
+        <v>0.9965798209757589</v>
       </c>
       <c r="Q15">
-        <v>0.8918044209945867</v>
+        <v>0.9965798209757589</v>
       </c>
       <c r="R15">
-        <v>0.8643141295531293</v>
+        <v>1.002764826132569</v>
       </c>
       <c r="S15">
-        <v>0.8643141295531293</v>
+        <v>1.002764826132569</v>
       </c>
       <c r="T15">
-        <v>0.9389030834981592</v>
+        <v>0.9973368627105045</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.3468737822869906</v>
+        <v>0.9334526809613151</v>
       </c>
       <c r="D16">
-        <v>1.064982177620622</v>
+        <v>1.005172150594626</v>
       </c>
       <c r="E16">
-        <v>1.378295427620319</v>
+        <v>1.042088820508054</v>
       </c>
       <c r="F16">
-        <v>0.3468737822869906</v>
+        <v>0.9334526809613151</v>
       </c>
       <c r="G16">
-        <v>1.093778157477495</v>
+        <v>1.005010421651394</v>
       </c>
       <c r="H16">
-        <v>0.68313051617231</v>
+        <v>0.9681185213791522</v>
       </c>
       <c r="I16">
-        <v>1.378295427620319</v>
+        <v>1.042088820508054</v>
       </c>
       <c r="J16">
-        <v>1.152959396003497</v>
+        <v>1.015351660763253</v>
       </c>
       <c r="K16">
-        <v>1.378295427620319</v>
+        <v>1.042088820508054</v>
       </c>
       <c r="L16">
-        <v>1.064982177620622</v>
+        <v>1.005172150594626</v>
       </c>
       <c r="M16">
-        <v>0.7059279799538063</v>
+        <v>0.9693124157779706</v>
       </c>
       <c r="N16">
-        <v>0.7059279799538063</v>
+        <v>0.9693124157779706</v>
       </c>
       <c r="O16">
-        <v>0.6983288253599742</v>
+        <v>0.9689144509783644</v>
       </c>
       <c r="P16">
-        <v>0.9300504625093104</v>
+        <v>0.993571217354665</v>
       </c>
       <c r="Q16">
-        <v>0.9300504625093104</v>
+        <v>0.993571217354665</v>
       </c>
       <c r="R16">
-        <v>1.042111703787063</v>
+        <v>1.005700618143012</v>
       </c>
       <c r="S16">
-        <v>1.042111703787063</v>
+        <v>1.005700618143012</v>
       </c>
       <c r="T16">
-        <v>0.9533365761968722</v>
+        <v>0.9948657093096324</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.5065817761169384</v>
+        <v>0.8747217146156244</v>
       </c>
       <c r="D17">
-        <v>1.074742172087963</v>
+        <v>1.011390482347434</v>
       </c>
       <c r="E17">
-        <v>1.237233020514873</v>
+        <v>1.076452611123887</v>
       </c>
       <c r="F17">
-        <v>0.5065817761169384</v>
+        <v>0.8747217146156244</v>
       </c>
       <c r="G17">
-        <v>1.159064885936552</v>
+        <v>1.013568731571547</v>
       </c>
       <c r="H17">
-        <v>0.7457627724028033</v>
+        <v>0.9388417576007501</v>
       </c>
       <c r="I17">
-        <v>1.237233020514873</v>
+        <v>1.076452611123887</v>
       </c>
       <c r="J17">
-        <v>1.118885039662127</v>
+        <v>1.029302912275523</v>
       </c>
       <c r="K17">
-        <v>1.237233020514873</v>
+        <v>1.076452611123887</v>
       </c>
       <c r="L17">
-        <v>1.074742172087963</v>
+        <v>1.011390482347434</v>
       </c>
       <c r="M17">
-        <v>0.7906619741024508</v>
+        <v>0.9430560984815293</v>
       </c>
       <c r="N17">
-        <v>0.7906619741024508</v>
+        <v>0.9430560984815293</v>
       </c>
       <c r="O17">
-        <v>0.7756955735359016</v>
+        <v>0.9416513181879362</v>
       </c>
       <c r="P17">
-        <v>0.9395189895732582</v>
+        <v>0.9875216026956485</v>
       </c>
       <c r="Q17">
-        <v>0.9395189895732582</v>
+        <v>0.9875216026956485</v>
       </c>
       <c r="R17">
-        <v>1.013947497308662</v>
+        <v>1.009754354802708</v>
       </c>
       <c r="S17">
-        <v>1.013947497308662</v>
+        <v>1.009754354802708</v>
       </c>
       <c r="T17">
-        <v>0.9737116111202097</v>
+        <v>0.9907130349224609</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8255199929656544</v>
+        <v>0.8218359198133741</v>
       </c>
       <c r="D18">
-        <v>1.092902826199503</v>
+        <v>1.017046889176577</v>
       </c>
       <c r="E18">
-        <v>0.9583099032556361</v>
+        <v>1.108956091458279</v>
       </c>
       <c r="F18">
-        <v>0.8255199929656544</v>
+        <v>0.8218359198133741</v>
       </c>
       <c r="G18">
-        <v>1.285657117161869</v>
+        <v>1.024180909524</v>
       </c>
       <c r="H18">
-        <v>0.8713099411825325</v>
+        <v>0.9073344754041363</v>
       </c>
       <c r="I18">
-        <v>0.9583099032556361</v>
+        <v>1.108956091458279</v>
       </c>
       <c r="J18">
-        <v>1.050679918564948</v>
+        <v>1.043302368877623</v>
       </c>
       <c r="K18">
-        <v>0.9583099032556361</v>
+        <v>1.108956091458279</v>
       </c>
       <c r="L18">
-        <v>1.092902826199503</v>
+        <v>1.017046889176577</v>
       </c>
       <c r="M18">
-        <v>0.9592114095825786</v>
+        <v>0.9194414044949755</v>
       </c>
       <c r="N18">
-        <v>0.9592114095825786</v>
+        <v>0.9194414044949755</v>
       </c>
       <c r="O18">
-        <v>0.9299109201158965</v>
+        <v>0.9154057614646957</v>
       </c>
       <c r="P18">
-        <v>0.9589109074735976</v>
+        <v>0.9826129668160766</v>
       </c>
       <c r="Q18">
-        <v>0.9589109074735976</v>
+        <v>0.9826129668160767</v>
       </c>
       <c r="R18">
-        <v>0.9587606564191073</v>
+        <v>1.014198747976627</v>
       </c>
       <c r="S18">
-        <v>0.9587606564191073</v>
+        <v>1.014198747976627</v>
       </c>
       <c r="T18">
-        <v>1.01406328322169</v>
+        <v>0.9871094423756649</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8285557996391096</v>
+        <v>0.9987746314075779</v>
       </c>
       <c r="D19">
-        <v>1.115857748278922</v>
+        <v>1.000754116266385</v>
       </c>
       <c r="E19">
-        <v>0.9174383592182578</v>
+        <v>0.99967718789796</v>
       </c>
       <c r="F19">
-        <v>0.8285557996391096</v>
+        <v>0.9987746314075779</v>
       </c>
       <c r="G19">
-        <v>1.352863136104446</v>
+        <v>1.002545268904795</v>
       </c>
       <c r="H19">
-        <v>0.8598187922651273</v>
+        <v>0.9989440016451887</v>
       </c>
       <c r="I19">
-        <v>0.9174383592182578</v>
+        <v>0.99967718789796</v>
       </c>
       <c r="J19">
-        <v>1.05352039565076</v>
+        <v>1.000362493710586</v>
       </c>
       <c r="K19">
-        <v>0.9174383592182578</v>
+        <v>0.99967718789796</v>
       </c>
       <c r="L19">
-        <v>1.115857748278922</v>
+        <v>1.000754116266385</v>
       </c>
       <c r="M19">
-        <v>0.9722067739590157</v>
+        <v>0.9997643738369815</v>
       </c>
       <c r="N19">
-        <v>0.9722067739590157</v>
+        <v>0.9997643738369815</v>
       </c>
       <c r="O19">
-        <v>0.9347441133943862</v>
+        <v>0.9994909164397172</v>
       </c>
       <c r="P19">
-        <v>0.9539506357120965</v>
+        <v>0.9997353118573077</v>
       </c>
       <c r="Q19">
-        <v>0.9539506357120965</v>
+        <v>0.9997353118573077</v>
       </c>
       <c r="R19">
-        <v>0.9448225665886367</v>
+        <v>0.9997207808674707</v>
       </c>
       <c r="S19">
-        <v>0.9448225665886367</v>
+        <v>0.9997207808674707</v>
       </c>
       <c r="T19">
-        <v>1.021342371859437</v>
+        <v>1.000176283305416</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.00092492759575</v>
+        <v>0.9963477495736608</v>
       </c>
       <c r="D20">
-        <v>1.002626968185683</v>
+        <v>1.001742538213956</v>
       </c>
       <c r="E20">
-        <v>0.9940819185932104</v>
+        <v>0.9998952518266523</v>
       </c>
       <c r="F20">
-        <v>1.00092492759575</v>
+        <v>0.9963477495736608</v>
       </c>
       <c r="G20">
-        <v>1.004797546611939</v>
+        <v>1.005954018670496</v>
       </c>
       <c r="H20">
-        <v>1.000163339636689</v>
+        <v>0.9971809328567862</v>
       </c>
       <c r="I20">
-        <v>0.9940819185932104</v>
+        <v>0.9998952518266523</v>
       </c>
       <c r="J20">
-        <v>0.9999541141367898</v>
+        <v>1.001004008152047</v>
       </c>
       <c r="K20">
-        <v>0.9940819185932104</v>
+        <v>0.9998952518266523</v>
       </c>
       <c r="L20">
-        <v>1.002626968185683</v>
+        <v>1.001742538213956</v>
       </c>
       <c r="M20">
-        <v>1.001775947890716</v>
+        <v>0.9990451438938084</v>
       </c>
       <c r="N20">
-        <v>1.001775947890716</v>
+        <v>0.9990451438938084</v>
       </c>
       <c r="O20">
-        <v>1.00123841180604</v>
+        <v>0.998423740214801</v>
       </c>
       <c r="P20">
-        <v>0.9992112714582143</v>
+        <v>0.9993285132047564</v>
       </c>
       <c r="Q20">
-        <v>0.9992112714582143</v>
+        <v>0.9993285132047562</v>
       </c>
       <c r="R20">
-        <v>0.9979289332419633</v>
+        <v>0.9994701978602303</v>
       </c>
       <c r="S20">
-        <v>0.9979289332419633</v>
+        <v>0.9994701978602303</v>
       </c>
       <c r="T20">
-        <v>1.00042480246001</v>
+        <v>1.0003540832156</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9965985345789827</v>
+        <v>0.9946141678520626</v>
       </c>
       <c r="D21">
-        <v>0.9975083762616219</v>
+        <v>1.001812728005449</v>
       </c>
       <c r="E21">
-        <v>1.007252790124974</v>
+        <v>1.001397553540039</v>
       </c>
       <c r="F21">
-        <v>0.9965985345789827</v>
+        <v>0.9946141678520626</v>
       </c>
       <c r="G21">
-        <v>0.9969893294093818</v>
+        <v>1.007194332561831</v>
       </c>
       <c r="H21">
-        <v>0.9985787378442932</v>
+        <v>0.9960343142406762</v>
       </c>
       <c r="I21">
-        <v>1.007252790124974</v>
+        <v>1.001397553540039</v>
       </c>
       <c r="J21">
-        <v>1.000493588642274</v>
+        <v>1.001348951241553</v>
       </c>
       <c r="K21">
-        <v>1.007252790124974</v>
+        <v>1.001397553540039</v>
       </c>
       <c r="L21">
-        <v>0.9975083762616219</v>
+        <v>1.001812728005449</v>
       </c>
       <c r="M21">
-        <v>0.9970534554203023</v>
+        <v>0.9982134479287557</v>
       </c>
       <c r="N21">
-        <v>0.9970534554203023</v>
+        <v>0.9982134479287557</v>
       </c>
       <c r="O21">
-        <v>0.9975618828949658</v>
+        <v>0.9974870700327291</v>
       </c>
       <c r="P21">
-        <v>1.000453233655193</v>
+        <v>0.9992748164658503</v>
       </c>
       <c r="Q21">
-        <v>1.000453233655193</v>
+        <v>0.9992748164658503</v>
       </c>
       <c r="R21">
-        <v>1.002153122772638</v>
+        <v>0.9998055007343976</v>
       </c>
       <c r="S21">
-        <v>1.002153122772638</v>
+        <v>0.9998055007343976</v>
       </c>
       <c r="T21">
-        <v>0.9995702261435877</v>
+        <v>1.000400341240268</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9918426011600958</v>
+        <v>0.988964241561173</v>
       </c>
       <c r="D22">
-        <v>1.00824239562939</v>
+        <v>1.004499356293827</v>
       </c>
       <c r="E22">
-        <v>0.9926607096216356</v>
+        <v>1.001234787803666</v>
       </c>
       <c r="F22">
-        <v>0.9918426011600958</v>
+        <v>0.988964241561173</v>
       </c>
       <c r="G22">
-        <v>1.013271013946519</v>
+        <v>1.01729390290549</v>
       </c>
       <c r="H22">
-        <v>0.9948652784591105</v>
+        <v>0.9915556941182255</v>
       </c>
       <c r="I22">
-        <v>0.9926607096216356</v>
+        <v>1.001234787803666</v>
       </c>
       <c r="J22">
-        <v>1.002026971633378</v>
+        <v>1.002839956079332</v>
       </c>
       <c r="K22">
-        <v>0.9926607096216356</v>
+        <v>1.001234787803666</v>
       </c>
       <c r="L22">
-        <v>1.00824239562939</v>
+        <v>1.004499356293827</v>
       </c>
       <c r="M22">
-        <v>1.000042498394743</v>
+        <v>0.9967317989275</v>
       </c>
       <c r="N22">
-        <v>1.000042498394743</v>
+        <v>0.9967317989275</v>
       </c>
       <c r="O22">
-        <v>0.9983167584161988</v>
+        <v>0.9950064306577419</v>
       </c>
       <c r="P22">
-        <v>0.9975819021370405</v>
+        <v>0.9982327952195553</v>
       </c>
       <c r="Q22">
-        <v>0.9975819021370405</v>
+        <v>0.9982327952195553</v>
       </c>
       <c r="R22">
-        <v>0.9963516040081892</v>
+        <v>0.998983293365583</v>
       </c>
       <c r="S22">
-        <v>0.9963516040081892</v>
+        <v>0.998983293365583</v>
       </c>
       <c r="T22">
-        <v>1.000484828408355</v>
+        <v>1.001064656460285</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9809538788644676</v>
+      </c>
+      <c r="D23">
+        <v>1.006050471235942</v>
+      </c>
+      <c r="E23">
+        <v>1.006379860594387</v>
+      </c>
+      <c r="F23">
+        <v>0.9809538788644676</v>
+      </c>
+      <c r="G23">
+        <v>1.024596735660762</v>
+      </c>
+      <c r="H23">
+        <v>0.9856099764001238</v>
+      </c>
+      <c r="I23">
+        <v>1.006379860594387</v>
+      </c>
+      <c r="J23">
+        <v>1.004926986959259</v>
+      </c>
+      <c r="K23">
+        <v>1.006379860594387</v>
+      </c>
+      <c r="L23">
+        <v>1.006050471235942</v>
+      </c>
+      <c r="M23">
+        <v>0.993502175050205</v>
+      </c>
+      <c r="N23">
+        <v>0.993502175050205</v>
+      </c>
+      <c r="O23">
+        <v>0.9908714421668446</v>
+      </c>
+      <c r="P23">
+        <v>0.9977947368982658</v>
+      </c>
+      <c r="Q23">
+        <v>0.9977947368982658</v>
+      </c>
+      <c r="R23">
+        <v>0.9999410178222962</v>
+      </c>
+      <c r="S23">
+        <v>0.9999410178222962</v>
+      </c>
+      <c r="T23">
+        <v>1.001419651619157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9802252549497712</v>
+      </c>
+      <c r="D24">
+        <v>0.9602546650083731</v>
+      </c>
+      <c r="E24">
+        <v>0.9690644164062651</v>
+      </c>
+      <c r="F24">
+        <v>0.9802252549497712</v>
+      </c>
+      <c r="G24">
+        <v>0.5807377993154514</v>
+      </c>
+      <c r="H24">
+        <v>1.175046938473264</v>
+      </c>
+      <c r="I24">
+        <v>0.9690644164062651</v>
+      </c>
+      <c r="J24">
+        <v>0.9636430330401394</v>
+      </c>
+      <c r="K24">
+        <v>0.9690644164062651</v>
+      </c>
+      <c r="L24">
+        <v>0.9602546650083731</v>
+      </c>
+      <c r="M24">
+        <v>0.9702399599790721</v>
+      </c>
+      <c r="N24">
+        <v>0.9702399599790721</v>
+      </c>
+      <c r="O24">
+        <v>1.038508952810469</v>
+      </c>
+      <c r="P24">
+        <v>0.9698481121214697</v>
+      </c>
+      <c r="Q24">
+        <v>0.9698481121214698</v>
+      </c>
+      <c r="R24">
+        <v>0.9696521881926686</v>
+      </c>
+      <c r="S24">
+        <v>0.9696521881926686</v>
+      </c>
+      <c r="T24">
+        <v>0.938162017865544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.366709105250883</v>
+      </c>
+      <c r="D25">
+        <v>0.9050363461714496</v>
+      </c>
+      <c r="E25">
+        <v>1.052375073598307</v>
+      </c>
+      <c r="F25">
+        <v>1.366709105250883</v>
+      </c>
+      <c r="G25">
+        <v>1.095215812843656</v>
+      </c>
+      <c r="H25">
+        <v>1.014476184280964</v>
+      </c>
+      <c r="I25">
+        <v>1.052375073598307</v>
+      </c>
+      <c r="J25">
+        <v>0.9490405117343005</v>
+      </c>
+      <c r="K25">
+        <v>1.052375073598307</v>
+      </c>
+      <c r="L25">
+        <v>0.9050363461714496</v>
+      </c>
+      <c r="M25">
+        <v>1.135872725711166</v>
+      </c>
+      <c r="N25">
+        <v>1.135872725711166</v>
+      </c>
+      <c r="O25">
+        <v>1.095407211901099</v>
+      </c>
+      <c r="P25">
+        <v>1.10804017500688</v>
+      </c>
+      <c r="Q25">
+        <v>1.10804017500688</v>
+      </c>
+      <c r="R25">
+        <v>1.094123899654737</v>
+      </c>
+      <c r="S25">
+        <v>1.094123899654737</v>
+      </c>
+      <c r="T25">
+        <v>1.063808838979927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.96233846481208</v>
+      </c>
+      <c r="D26">
+        <v>0.7440129901615185</v>
+      </c>
+      <c r="E26">
+        <v>0.9526359153981008</v>
+      </c>
+      <c r="F26">
+        <v>1.96233846481208</v>
+      </c>
+      <c r="G26">
+        <v>0.6202844476594191</v>
+      </c>
+      <c r="H26">
+        <v>1.348812791764563</v>
+      </c>
+      <c r="I26">
+        <v>0.9526359153981008</v>
+      </c>
+      <c r="J26">
+        <v>0.8012109449619563</v>
+      </c>
+      <c r="K26">
+        <v>0.9526359153981008</v>
+      </c>
+      <c r="L26">
+        <v>0.7440129901615185</v>
+      </c>
+      <c r="M26">
+        <v>1.353175727486799</v>
+      </c>
+      <c r="N26">
+        <v>1.353175727486799</v>
+      </c>
+      <c r="O26">
+        <v>1.351721415579387</v>
+      </c>
+      <c r="P26">
+        <v>1.219662456790566</v>
+      </c>
+      <c r="Q26">
+        <v>1.219662456790567</v>
+      </c>
+      <c r="R26">
+        <v>1.15290582144245</v>
+      </c>
+      <c r="S26">
+        <v>1.15290582144245</v>
+      </c>
+      <c r="T26">
+        <v>1.071549259126273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.8417855322121204</v>
+      </c>
+      <c r="D27">
+        <v>1.051784475542883</v>
+      </c>
+      <c r="E27">
+        <v>0.7818432552287572</v>
+      </c>
+      <c r="F27">
+        <v>0.8417855322121204</v>
+      </c>
+      <c r="G27">
+        <v>0.8329355723140562</v>
+      </c>
+      <c r="H27">
+        <v>1.150130735975715</v>
+      </c>
+      <c r="I27">
+        <v>0.7818432552287572</v>
+      </c>
+      <c r="J27">
+        <v>0.9749389297154238</v>
+      </c>
+      <c r="K27">
+        <v>0.7818432552287572</v>
+      </c>
+      <c r="L27">
+        <v>1.051784475542883</v>
+      </c>
+      <c r="M27">
+        <v>0.9467850038775015</v>
+      </c>
+      <c r="N27">
+        <v>0.9467850038775015</v>
+      </c>
+      <c r="O27">
+        <v>1.014566914576906</v>
+      </c>
+      <c r="P27">
+        <v>0.8918044209945868</v>
+      </c>
+      <c r="Q27">
+        <v>0.8918044209945867</v>
+      </c>
+      <c r="R27">
+        <v>0.8643141295531293</v>
+      </c>
+      <c r="S27">
+        <v>0.8643141295531293</v>
+      </c>
+      <c r="T27">
+        <v>0.9389030834981592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.3468737822869906</v>
+      </c>
+      <c r="D28">
+        <v>1.064982177620622</v>
+      </c>
+      <c r="E28">
+        <v>1.378295427620319</v>
+      </c>
+      <c r="F28">
+        <v>0.3468737822869906</v>
+      </c>
+      <c r="G28">
+        <v>1.093778157477495</v>
+      </c>
+      <c r="H28">
+        <v>0.68313051617231</v>
+      </c>
+      <c r="I28">
+        <v>1.378295427620319</v>
+      </c>
+      <c r="J28">
+        <v>1.152959396003497</v>
+      </c>
+      <c r="K28">
+        <v>1.378295427620319</v>
+      </c>
+      <c r="L28">
+        <v>1.064982177620622</v>
+      </c>
+      <c r="M28">
+        <v>0.7059279799538063</v>
+      </c>
+      <c r="N28">
+        <v>0.7059279799538063</v>
+      </c>
+      <c r="O28">
+        <v>0.6983288253599742</v>
+      </c>
+      <c r="P28">
+        <v>0.9300504625093104</v>
+      </c>
+      <c r="Q28">
+        <v>0.9300504625093104</v>
+      </c>
+      <c r="R28">
+        <v>1.042111703787063</v>
+      </c>
+      <c r="S28">
+        <v>1.042111703787063</v>
+      </c>
+      <c r="T28">
+        <v>0.9533365761968722</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.5065817761169384</v>
+      </c>
+      <c r="D29">
+        <v>1.074742172087963</v>
+      </c>
+      <c r="E29">
+        <v>1.237233020514873</v>
+      </c>
+      <c r="F29">
+        <v>0.5065817761169384</v>
+      </c>
+      <c r="G29">
+        <v>1.159064885936552</v>
+      </c>
+      <c r="H29">
+        <v>0.7457627724028033</v>
+      </c>
+      <c r="I29">
+        <v>1.237233020514873</v>
+      </c>
+      <c r="J29">
+        <v>1.118885039662127</v>
+      </c>
+      <c r="K29">
+        <v>1.237233020514873</v>
+      </c>
+      <c r="L29">
+        <v>1.074742172087963</v>
+      </c>
+      <c r="M29">
+        <v>0.7906619741024508</v>
+      </c>
+      <c r="N29">
+        <v>0.7906619741024508</v>
+      </c>
+      <c r="O29">
+        <v>0.7756955735359016</v>
+      </c>
+      <c r="P29">
+        <v>0.9395189895732582</v>
+      </c>
+      <c r="Q29">
+        <v>0.9395189895732582</v>
+      </c>
+      <c r="R29">
+        <v>1.013947497308662</v>
+      </c>
+      <c r="S29">
+        <v>1.013947497308662</v>
+      </c>
+      <c r="T29">
+        <v>0.9737116111202097</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8255199929656544</v>
+      </c>
+      <c r="D30">
+        <v>1.092902826199503</v>
+      </c>
+      <c r="E30">
+        <v>0.9583099032556361</v>
+      </c>
+      <c r="F30">
+        <v>0.8255199929656544</v>
+      </c>
+      <c r="G30">
+        <v>1.285657117161869</v>
+      </c>
+      <c r="H30">
+        <v>0.8713099411825325</v>
+      </c>
+      <c r="I30">
+        <v>0.9583099032556361</v>
+      </c>
+      <c r="J30">
+        <v>1.050679918564948</v>
+      </c>
+      <c r="K30">
+        <v>0.9583099032556361</v>
+      </c>
+      <c r="L30">
+        <v>1.092902826199503</v>
+      </c>
+      <c r="M30">
+        <v>0.9592114095825786</v>
+      </c>
+      <c r="N30">
+        <v>0.9592114095825786</v>
+      </c>
+      <c r="O30">
+        <v>0.9299109201158965</v>
+      </c>
+      <c r="P30">
+        <v>0.9589109074735976</v>
+      </c>
+      <c r="Q30">
+        <v>0.9589109074735976</v>
+      </c>
+      <c r="R30">
+        <v>0.9587606564191073</v>
+      </c>
+      <c r="S30">
+        <v>0.9587606564191073</v>
+      </c>
+      <c r="T30">
+        <v>1.01406328322169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8285557996391096</v>
+      </c>
+      <c r="D31">
+        <v>1.115857748278922</v>
+      </c>
+      <c r="E31">
+        <v>0.9174383592182578</v>
+      </c>
+      <c r="F31">
+        <v>0.8285557996391096</v>
+      </c>
+      <c r="G31">
+        <v>1.352863136104446</v>
+      </c>
+      <c r="H31">
+        <v>0.8598187922651273</v>
+      </c>
+      <c r="I31">
+        <v>0.9174383592182578</v>
+      </c>
+      <c r="J31">
+        <v>1.05352039565076</v>
+      </c>
+      <c r="K31">
+        <v>0.9174383592182578</v>
+      </c>
+      <c r="L31">
+        <v>1.115857748278922</v>
+      </c>
+      <c r="M31">
+        <v>0.9722067739590157</v>
+      </c>
+      <c r="N31">
+        <v>0.9722067739590157</v>
+      </c>
+      <c r="O31">
+        <v>0.9347441133943862</v>
+      </c>
+      <c r="P31">
+        <v>0.9539506357120965</v>
+      </c>
+      <c r="Q31">
+        <v>0.9539506357120965</v>
+      </c>
+      <c r="R31">
+        <v>0.9448225665886367</v>
+      </c>
+      <c r="S31">
+        <v>0.9448225665886367</v>
+      </c>
+      <c r="T31">
+        <v>1.021342371859437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.1844283720054796</v>
+      </c>
+      <c r="D32">
+        <v>1.046808939178082</v>
+      </c>
+      <c r="E32">
+        <v>1.545729855616438</v>
+      </c>
+      <c r="F32">
+        <v>0.1844283720054796</v>
+      </c>
+      <c r="G32">
+        <v>1.018414763835617</v>
+      </c>
+      <c r="H32">
+        <v>0.6168950132328767</v>
+      </c>
+      <c r="I32">
+        <v>1.545729855616438</v>
+      </c>
+      <c r="J32">
+        <v>1.186441547945205</v>
+      </c>
+      <c r="K32">
+        <v>1.545729855616438</v>
+      </c>
+      <c r="L32">
+        <v>1.046808939178082</v>
+      </c>
+      <c r="M32">
+        <v>0.6156186555917808</v>
+      </c>
+      <c r="N32">
+        <v>0.6156186555917808</v>
+      </c>
+      <c r="O32">
+        <v>0.6160441081388127</v>
+      </c>
+      <c r="P32">
+        <v>0.9256557222666665</v>
+      </c>
+      <c r="Q32">
+        <v>0.9256557222666665</v>
+      </c>
+      <c r="R32">
+        <v>1.08067425560411</v>
+      </c>
+      <c r="S32">
+        <v>1.08067425560411</v>
+      </c>
+      <c r="T32">
+        <v>0.9331197486356163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.160937816915789</v>
+      </c>
+      <c r="D33">
+        <v>1.172336561052632</v>
+      </c>
+      <c r="E33">
+        <v>0.7419490815789473</v>
+      </c>
+      <c r="F33">
+        <v>1.160937816915789</v>
+      </c>
+      <c r="G33">
+        <v>1.936422834736842</v>
+      </c>
+      <c r="H33">
+        <v>0.7730015051578949</v>
+      </c>
+      <c r="I33">
+        <v>0.7419490815789473</v>
+      </c>
+      <c r="J33">
+        <v>1.016427865263158</v>
+      </c>
+      <c r="K33">
+        <v>0.7419490815789473</v>
+      </c>
+      <c r="L33">
+        <v>1.172336561052632</v>
+      </c>
+      <c r="M33">
+        <v>1.16663718898421</v>
+      </c>
+      <c r="N33">
+        <v>1.16663718898421</v>
+      </c>
+      <c r="O33">
+        <v>1.035425294375439</v>
+      </c>
+      <c r="P33">
+        <v>1.025074486515789</v>
+      </c>
+      <c r="Q33">
+        <v>1.025074486515789</v>
+      </c>
+      <c r="R33">
+        <v>0.9542931352815789</v>
+      </c>
+      <c r="S33">
+        <v>0.9542931352815789</v>
+      </c>
+      <c r="T33">
+        <v>1.13351261078421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.1267173961578947</v>
+      </c>
+      <c r="D34">
+        <v>1.063861531578947</v>
+      </c>
+      <c r="E34">
+        <v>1.676284288421053</v>
+      </c>
+      <c r="F34">
+        <v>0.1267173961578947</v>
+      </c>
+      <c r="G34">
+        <v>1.009069868947368</v>
+      </c>
+      <c r="H34">
+        <v>0.5256645878947368</v>
+      </c>
+      <c r="I34">
+        <v>1.676284288421053</v>
+      </c>
+      <c r="J34">
+        <v>1.224837015789473</v>
+      </c>
+      <c r="K34">
+        <v>1.676284288421053</v>
+      </c>
+      <c r="L34">
+        <v>1.063861531578947</v>
+      </c>
+      <c r="M34">
+        <v>0.5952894638684211</v>
+      </c>
+      <c r="N34">
+        <v>0.5952894638684211</v>
+      </c>
+      <c r="O34">
+        <v>0.572081171877193</v>
+      </c>
+      <c r="P34">
+        <v>0.9556210720526316</v>
+      </c>
+      <c r="Q34">
+        <v>0.9556210720526316</v>
+      </c>
+      <c r="R34">
+        <v>1.135786876144737</v>
+      </c>
+      <c r="S34">
+        <v>1.135786876144737</v>
+      </c>
+      <c r="T34">
+        <v>0.9377391147982456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4245452260094649</v>
+      </c>
+      <c r="D35">
+        <v>1.432543535701004</v>
+      </c>
+      <c r="E35">
+        <v>0.6529450407489424</v>
+      </c>
+      <c r="F35">
+        <v>0.4245452260094649</v>
+      </c>
+      <c r="G35">
+        <v>2.372278399287577</v>
+      </c>
+      <c r="H35">
+        <v>0.5043864343124184</v>
+      </c>
+      <c r="I35">
+        <v>0.6529450407489424</v>
+      </c>
+      <c r="J35">
+        <v>1.176575601121032</v>
+      </c>
+      <c r="K35">
+        <v>0.6529450407489424</v>
+      </c>
+      <c r="L35">
+        <v>1.432543535701004</v>
+      </c>
+      <c r="M35">
+        <v>0.9285443808552346</v>
+      </c>
+      <c r="N35">
+        <v>0.9285443808552346</v>
+      </c>
+      <c r="O35">
+        <v>0.7871583986742959</v>
+      </c>
+      <c r="P35">
+        <v>0.8366779341531373</v>
+      </c>
+      <c r="Q35">
+        <v>0.8366779341531373</v>
+      </c>
+      <c r="R35">
+        <v>0.7907447108020885</v>
+      </c>
+      <c r="S35">
+        <v>0.7907447108020885</v>
+      </c>
+      <c r="T35">
+        <v>1.093879039530073</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.00092492759575</v>
+      </c>
+      <c r="D36">
+        <v>1.002626968185683</v>
+      </c>
+      <c r="E36">
+        <v>0.9940819185932104</v>
+      </c>
+      <c r="F36">
+        <v>1.00092492759575</v>
+      </c>
+      <c r="G36">
+        <v>1.004797546611939</v>
+      </c>
+      <c r="H36">
+        <v>1.000163339636689</v>
+      </c>
+      <c r="I36">
+        <v>0.9940819185932104</v>
+      </c>
+      <c r="J36">
+        <v>0.9999541141367898</v>
+      </c>
+      <c r="K36">
+        <v>0.9940819185932104</v>
+      </c>
+      <c r="L36">
+        <v>1.002626968185683</v>
+      </c>
+      <c r="M36">
+        <v>1.001775947890716</v>
+      </c>
+      <c r="N36">
+        <v>1.001775947890716</v>
+      </c>
+      <c r="O36">
+        <v>1.00123841180604</v>
+      </c>
+      <c r="P36">
+        <v>0.9992112714582143</v>
+      </c>
+      <c r="Q36">
+        <v>0.9992112714582143</v>
+      </c>
+      <c r="R36">
+        <v>0.9979289332419633</v>
+      </c>
+      <c r="S36">
+        <v>0.9979289332419633</v>
+      </c>
+      <c r="T36">
+        <v>1.00042480246001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9965985345789827</v>
+      </c>
+      <c r="D37">
+        <v>0.9975083762616219</v>
+      </c>
+      <c r="E37">
+        <v>1.007252790124974</v>
+      </c>
+      <c r="F37">
+        <v>0.9965985345789827</v>
+      </c>
+      <c r="G37">
+        <v>0.9969893294093818</v>
+      </c>
+      <c r="H37">
+        <v>0.9985787378442932</v>
+      </c>
+      <c r="I37">
+        <v>1.007252790124974</v>
+      </c>
+      <c r="J37">
+        <v>1.000493588642274</v>
+      </c>
+      <c r="K37">
+        <v>1.007252790124974</v>
+      </c>
+      <c r="L37">
+        <v>0.9975083762616219</v>
+      </c>
+      <c r="M37">
+        <v>0.9970534554203023</v>
+      </c>
+      <c r="N37">
+        <v>0.9970534554203023</v>
+      </c>
+      <c r="O37">
+        <v>0.9975618828949658</v>
+      </c>
+      <c r="P37">
+        <v>1.000453233655193</v>
+      </c>
+      <c r="Q37">
+        <v>1.000453233655193</v>
+      </c>
+      <c r="R37">
+        <v>1.002153122772638</v>
+      </c>
+      <c r="S37">
+        <v>1.002153122772638</v>
+      </c>
+      <c r="T37">
+        <v>0.9995702261435877</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9918426011600958</v>
+      </c>
+      <c r="D38">
+        <v>1.00824239562939</v>
+      </c>
+      <c r="E38">
+        <v>0.9926607096216356</v>
+      </c>
+      <c r="F38">
+        <v>0.9918426011600958</v>
+      </c>
+      <c r="G38">
+        <v>1.013271013946519</v>
+      </c>
+      <c r="H38">
+        <v>0.9948652784591105</v>
+      </c>
+      <c r="I38">
+        <v>0.9926607096216356</v>
+      </c>
+      <c r="J38">
+        <v>1.002026971633378</v>
+      </c>
+      <c r="K38">
+        <v>0.9926607096216356</v>
+      </c>
+      <c r="L38">
+        <v>1.00824239562939</v>
+      </c>
+      <c r="M38">
+        <v>1.000042498394743</v>
+      </c>
+      <c r="N38">
+        <v>1.000042498394743</v>
+      </c>
+      <c r="O38">
+        <v>0.9983167584161988</v>
+      </c>
+      <c r="P38">
+        <v>0.9975819021370405</v>
+      </c>
+      <c r="Q38">
+        <v>0.9975819021370405</v>
+      </c>
+      <c r="R38">
+        <v>0.9963516040081892</v>
+      </c>
+      <c r="S38">
+        <v>0.9963516040081892</v>
+      </c>
+      <c r="T38">
+        <v>1.000484828408355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.979132868425156</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.02823048696984</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9579639161002264</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.979132868425156</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.039539259497659</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9896174577150333</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9579639161002264</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.006971569602191</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9579639161002264</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.02823048696984</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.003681677697498</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.003681677697498</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9989936043700097</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9884424238317407</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9884424238317407</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9808227968988621</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9808227968988621</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000242593051684</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8330988132607275</v>
+      </c>
+      <c r="D40">
+        <v>1.093328945814302</v>
+      </c>
+      <c r="E40">
+        <v>0.946824312724412</v>
+      </c>
+      <c r="F40">
+        <v>0.8330988132607275</v>
+      </c>
+      <c r="G40">
+        <v>1.344600710749345</v>
+      </c>
+      <c r="H40">
+        <v>0.8632852805424541</v>
+      </c>
+      <c r="I40">
+        <v>0.946824312724412</v>
+      </c>
+      <c r="J40">
+        <v>1.048030891780529</v>
+      </c>
+      <c r="K40">
+        <v>0.946824312724412</v>
+      </c>
+      <c r="L40">
+        <v>1.093328945814302</v>
+      </c>
+      <c r="M40">
+        <v>0.9632138795375147</v>
+      </c>
+      <c r="N40">
+        <v>0.9632138795375147</v>
+      </c>
+      <c r="O40">
+        <v>0.9299043465391611</v>
+      </c>
+      <c r="P40">
+        <v>0.9577506905998138</v>
+      </c>
+      <c r="Q40">
+        <v>0.9577506905998138</v>
+      </c>
+      <c r="R40">
+        <v>0.9550190961309634</v>
+      </c>
+      <c r="S40">
+        <v>0.9550190961309634</v>
+      </c>
+      <c r="T40">
+        <v>1.021528159145295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9925589980504214</v>
+      </c>
+      <c r="D41">
+        <v>0.9921870963178293</v>
+      </c>
+      <c r="E41">
+        <v>1.014310461697977</v>
+      </c>
+      <c r="F41">
+        <v>0.9925589980504214</v>
+      </c>
+      <c r="G41">
+        <v>0.9568796250891981</v>
+      </c>
+      <c r="H41">
+        <v>1.01014437323127</v>
+      </c>
+      <c r="I41">
+        <v>1.014310461697977</v>
+      </c>
+      <c r="J41">
+        <v>0.998359917970573</v>
+      </c>
+      <c r="K41">
+        <v>1.014310461697977</v>
+      </c>
+      <c r="L41">
+        <v>0.9921870963178293</v>
+      </c>
+      <c r="M41">
+        <v>0.9923730471841253</v>
+      </c>
+      <c r="N41">
+        <v>0.9923730471841253</v>
+      </c>
+      <c r="O41">
+        <v>0.9982968225331738</v>
+      </c>
+      <c r="P41">
+        <v>0.9996855186887424</v>
+      </c>
+      <c r="Q41">
+        <v>0.9996855186887424</v>
+      </c>
+      <c r="R41">
+        <v>1.003341754441051</v>
+      </c>
+      <c r="S41">
+        <v>1.003341754441051</v>
+      </c>
+      <c r="T41">
+        <v>0.9940734120595448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.647312147304513</v>
+      </c>
+      <c r="D42">
+        <v>1.079633162743068</v>
+      </c>
+      <c r="E42">
+        <v>1.120083071964115</v>
+      </c>
+      <c r="F42">
+        <v>0.647312147304513</v>
+      </c>
+      <c r="G42">
+        <v>1.384660601006299</v>
+      </c>
+      <c r="H42">
+        <v>0.7526773439907267</v>
+      </c>
+      <c r="I42">
+        <v>1.120083071964115</v>
+      </c>
+      <c r="J42">
+        <v>1.095138134357724</v>
+      </c>
+      <c r="K42">
+        <v>1.120083071964115</v>
+      </c>
+      <c r="L42">
+        <v>1.079633162743068</v>
+      </c>
+      <c r="M42">
+        <v>0.8634726550237908</v>
+      </c>
+      <c r="N42">
+        <v>0.8634726550237908</v>
+      </c>
+      <c r="O42">
+        <v>0.8265408846794361</v>
+      </c>
+      <c r="P42">
+        <v>0.9490094606705655</v>
+      </c>
+      <c r="Q42">
+        <v>0.9490094606705654</v>
+      </c>
+      <c r="R42">
+        <v>0.9917778634939527</v>
+      </c>
+      <c r="S42">
+        <v>0.9917778634939527</v>
+      </c>
+      <c r="T42">
+        <v>1.013250743561074</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.021319841602998</v>
+        <v>0.9963477495736608</v>
       </c>
       <c r="D3">
-        <v>0.9655475246610952</v>
+        <v>1.001742538213956</v>
       </c>
       <c r="E3">
-        <v>1.002872096663183</v>
+        <v>0.9998952518266523</v>
       </c>
       <c r="F3">
-        <v>1.021319841602998</v>
+        <v>0.9963477495736608</v>
       </c>
       <c r="G3">
-        <v>1.002777549217559</v>
+        <v>1.005954018670496</v>
       </c>
       <c r="H3">
-        <v>0.9835133290845978</v>
+        <v>0.9971809328567862</v>
       </c>
       <c r="I3">
-        <v>1.007990835033593</v>
+        <v>0.9998952518266523</v>
       </c>
       <c r="J3">
-        <v>0.9655475246610952</v>
+        <v>1.001004008152047</v>
       </c>
       <c r="K3">
-        <v>1.021319841602998</v>
+        <v>0.9998952518266523</v>
       </c>
       <c r="L3">
-        <v>1.002872096663183</v>
+        <v>1.001742538213956</v>
       </c>
       <c r="M3">
-        <v>0.9842098106621393</v>
+        <v>0.9990451438938084</v>
       </c>
       <c r="N3">
-        <v>0.9842098106621393</v>
+        <v>0.9990451438938084</v>
       </c>
       <c r="O3">
-        <v>0.9839776501362921</v>
+        <v>0.998423740214801</v>
       </c>
       <c r="P3">
-        <v>0.9965798209757589</v>
+        <v>0.9993285132047564</v>
       </c>
       <c r="Q3">
-        <v>0.9965798209757589</v>
+        <v>0.9993285132047562</v>
       </c>
       <c r="R3">
-        <v>1.002764826132569</v>
+        <v>0.9994701978602303</v>
       </c>
       <c r="S3">
-        <v>1.002764826132569</v>
+        <v>0.9994701978602303</v>
       </c>
       <c r="T3">
-        <v>0.9973368627105045</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.0003540832156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.042088820508054</v>
+        <v>0.8330988132607275</v>
       </c>
       <c r="D4">
-        <v>0.9334526809613147</v>
+        <v>1.093328945814302</v>
       </c>
       <c r="E4">
-        <v>1.005172150594626</v>
+        <v>0.946824312724412</v>
       </c>
       <c r="F4">
-        <v>1.042088820508054</v>
+        <v>0.8330988132607275</v>
       </c>
       <c r="G4">
-        <v>1.005010421651394</v>
+        <v>1.344600710749345</v>
       </c>
       <c r="H4">
-        <v>0.9681185213791522</v>
+        <v>0.8632852805424541</v>
       </c>
       <c r="I4">
-        <v>1.015351660763253</v>
+        <v>0.946824312724412</v>
       </c>
       <c r="J4">
-        <v>0.9334526809613147</v>
+        <v>1.048030891780529</v>
       </c>
       <c r="K4">
-        <v>1.042088820508054</v>
+        <v>0.946824312724412</v>
       </c>
       <c r="L4">
-        <v>1.005172150594626</v>
+        <v>1.093328945814302</v>
       </c>
       <c r="M4">
-        <v>0.9693124157779704</v>
+        <v>0.9632138795375147</v>
       </c>
       <c r="N4">
-        <v>0.9693124157779704</v>
+        <v>0.9632138795375147</v>
       </c>
       <c r="O4">
-        <v>0.9689144509783644</v>
+        <v>0.9299043465391611</v>
       </c>
       <c r="P4">
-        <v>0.9935712173546648</v>
+        <v>0.9577506905998138</v>
       </c>
       <c r="Q4">
-        <v>0.9935712173546648</v>
+        <v>0.9577506905998138</v>
       </c>
       <c r="R4">
-        <v>1.005700618143012</v>
+        <v>0.9550190961309634</v>
       </c>
       <c r="S4">
-        <v>1.005700618143012</v>
+        <v>0.9550190961309634</v>
       </c>
       <c r="T4">
-        <v>0.9948657093096324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.021528159145295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.076452611123887</v>
+        <v>0.7833559280946657</v>
       </c>
       <c r="D5">
-        <v>0.8747217146156244</v>
+        <v>1.109794617608067</v>
       </c>
       <c r="E5">
-        <v>1.011390482347434</v>
+        <v>0.9610976419164261</v>
       </c>
       <c r="F5">
-        <v>1.076452611123887</v>
+        <v>0.7833559280946657</v>
       </c>
       <c r="G5">
-        <v>1.013568731571547</v>
+        <v>1.332818137093658</v>
       </c>
       <c r="H5">
-        <v>0.9388417576007501</v>
+        <v>0.8434241750763689</v>
       </c>
       <c r="I5">
-        <v>1.029302912275523</v>
+        <v>0.9610976419164261</v>
       </c>
       <c r="J5">
-        <v>0.8747217146156244</v>
+        <v>1.062182030129683</v>
       </c>
       <c r="K5">
-        <v>1.076452611123887</v>
+        <v>0.9610976419164261</v>
       </c>
       <c r="L5">
-        <v>1.011390482347434</v>
+        <v>1.109794617608067</v>
       </c>
       <c r="M5">
-        <v>0.9430560984815293</v>
+        <v>0.9465752728513666</v>
       </c>
       <c r="N5">
-        <v>0.9430560984815293</v>
+        <v>0.9465752728513666</v>
       </c>
       <c r="O5">
-        <v>0.9416513181879362</v>
+        <v>0.912191573593034</v>
       </c>
       <c r="P5">
-        <v>0.9875216026956485</v>
+        <v>0.9514160625397198</v>
       </c>
       <c r="Q5">
-        <v>0.9875216026956485</v>
+        <v>0.9514160625397197</v>
       </c>
       <c r="R5">
-        <v>1.009754354802708</v>
+        <v>0.9538364573838962</v>
       </c>
       <c r="S5">
-        <v>1.009754354802708</v>
+        <v>0.9538364573838962</v>
       </c>
       <c r="T5">
-        <v>0.9907130349224609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.015445421653145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.108956091458279</v>
+        <v>0.4245452260094649</v>
       </c>
       <c r="D6">
-        <v>0.8218359198133741</v>
+        <v>1.432543535701004</v>
       </c>
       <c r="E6">
-        <v>1.017046889176577</v>
+        <v>0.6529450407489424</v>
       </c>
       <c r="F6">
-        <v>1.108956091458279</v>
+        <v>0.4245452260094649</v>
       </c>
       <c r="G6">
-        <v>1.024180909524</v>
+        <v>2.372278399287577</v>
       </c>
       <c r="H6">
-        <v>0.9073344754041363</v>
+        <v>0.5043864343124184</v>
       </c>
       <c r="I6">
-        <v>1.043302368877623</v>
+        <v>0.6529450407489424</v>
       </c>
       <c r="J6">
-        <v>0.8218359198133741</v>
+        <v>1.176575601121032</v>
       </c>
       <c r="K6">
-        <v>1.108956091458279</v>
+        <v>0.6529450407489424</v>
       </c>
       <c r="L6">
-        <v>1.017046889176577</v>
+        <v>1.432543535701004</v>
       </c>
       <c r="M6">
-        <v>0.9194414044949755</v>
+        <v>0.9285443808552346</v>
       </c>
       <c r="N6">
-        <v>0.9194414044949755</v>
+        <v>0.9285443808552346</v>
       </c>
       <c r="O6">
-        <v>0.9154057614646957</v>
+        <v>0.7871583986742959</v>
       </c>
       <c r="P6">
-        <v>0.9826129668160766</v>
+        <v>0.8366779341531373</v>
       </c>
       <c r="Q6">
-        <v>0.9826129668160767</v>
+        <v>0.8366779341531373</v>
       </c>
       <c r="R6">
-        <v>1.014198747976627</v>
+        <v>0.7907447108020885</v>
       </c>
       <c r="S6">
-        <v>1.014198747976627</v>
+        <v>0.7907447108020885</v>
       </c>
       <c r="T6">
-        <v>0.9871094423756649</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.093879039530073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9996771878979598</v>
+        <v>0.9604978099470423</v>
       </c>
       <c r="D7">
-        <v>0.9987746314075777</v>
+        <v>1.001944084904166</v>
       </c>
       <c r="E7">
-        <v>1.000754116266385</v>
+        <v>1.027458882817283</v>
       </c>
       <c r="F7">
-        <v>0.9996771878979598</v>
+        <v>0.9604978099470423</v>
       </c>
       <c r="G7">
-        <v>1.002545268904795</v>
+        <v>1.001326286449757</v>
       </c>
       <c r="H7">
-        <v>0.9989440016451888</v>
+        <v>0.9806809459149785</v>
       </c>
       <c r="I7">
-        <v>1.000362493710586</v>
+        <v>1.027458882817283</v>
       </c>
       <c r="J7">
-        <v>0.9987746314075777</v>
+        <v>1.009356537232187</v>
       </c>
       <c r="K7">
-        <v>0.9996771878979598</v>
+        <v>1.027458882817283</v>
       </c>
       <c r="L7">
-        <v>1.000754116266385</v>
+        <v>1.001944084904166</v>
       </c>
       <c r="M7">
-        <v>0.9997643738369812</v>
+        <v>0.9812209474256043</v>
       </c>
       <c r="N7">
-        <v>0.9997643738369812</v>
+        <v>0.9812209474256043</v>
       </c>
       <c r="O7">
-        <v>0.9994909164397171</v>
+        <v>0.9810409469220623</v>
       </c>
       <c r="P7">
-        <v>0.9997353118573074</v>
+        <v>0.9966335925561639</v>
       </c>
       <c r="Q7">
-        <v>0.9997353118573074</v>
+        <v>0.9966335925561639</v>
       </c>
       <c r="R7">
-        <v>0.9997207808674704</v>
+        <v>1.004339915121444</v>
       </c>
       <c r="S7">
-        <v>0.9997207808674704</v>
+        <v>1.004339915121444</v>
       </c>
       <c r="T7">
-        <v>1.000176283305415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9968774245442357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998952518266518</v>
+        <v>0.9965985345789827</v>
       </c>
       <c r="D8">
-        <v>0.9963477495736612</v>
+        <v>0.9975083762616219</v>
       </c>
       <c r="E8">
-        <v>1.001742538213956</v>
+        <v>1.007252790124974</v>
       </c>
       <c r="F8">
-        <v>0.9998952518266518</v>
+        <v>0.9965985345789827</v>
       </c>
       <c r="G8">
-        <v>1.005954018670495</v>
+        <v>0.9969893294093818</v>
       </c>
       <c r="H8">
-        <v>0.9971809328567862</v>
+        <v>0.9985787378442932</v>
       </c>
       <c r="I8">
-        <v>1.001004008152047</v>
+        <v>1.007252790124974</v>
       </c>
       <c r="J8">
-        <v>0.9963477495736612</v>
+        <v>1.000493588642274</v>
       </c>
       <c r="K8">
-        <v>0.9998952518266518</v>
+        <v>1.007252790124974</v>
       </c>
       <c r="L8">
-        <v>1.001742538213956</v>
+        <v>0.9975083762616219</v>
       </c>
       <c r="M8">
-        <v>0.9990451438938085</v>
+        <v>0.9970534554203023</v>
       </c>
       <c r="N8">
-        <v>0.9990451438938085</v>
+        <v>0.9970534554203023</v>
       </c>
       <c r="O8">
-        <v>0.998423740214801</v>
+        <v>0.9975618828949658</v>
       </c>
       <c r="P8">
-        <v>0.9993285132047562</v>
+        <v>1.000453233655193</v>
       </c>
       <c r="Q8">
-        <v>0.9993285132047562</v>
+        <v>1.000453233655193</v>
       </c>
       <c r="R8">
-        <v>0.9994701978602302</v>
+        <v>1.002153122772638</v>
       </c>
       <c r="S8">
-        <v>0.9994701978602302</v>
+        <v>1.002153122772638</v>
       </c>
       <c r="T8">
-        <v>1.0003540832156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9995702261435877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001397553540039</v>
+        <v>0.9334526809613151</v>
       </c>
       <c r="D9">
-        <v>0.9946141678520626</v>
+        <v>1.005172150594626</v>
       </c>
       <c r="E9">
-        <v>1.001812728005449</v>
+        <v>1.042088820508054</v>
       </c>
       <c r="F9">
-        <v>1.001397553540039</v>
+        <v>0.9334526809613151</v>
       </c>
       <c r="G9">
-        <v>1.007194332561831</v>
+        <v>1.005010421651394</v>
       </c>
       <c r="H9">
-        <v>0.9960343142406762</v>
+        <v>0.9681185213791522</v>
       </c>
       <c r="I9">
-        <v>1.001348951241553</v>
+        <v>1.042088820508054</v>
       </c>
       <c r="J9">
-        <v>0.9946141678520626</v>
+        <v>1.015351660763253</v>
       </c>
       <c r="K9">
-        <v>1.001397553540039</v>
+        <v>1.042088820508054</v>
       </c>
       <c r="L9">
-        <v>1.001812728005449</v>
+        <v>1.005172150594626</v>
       </c>
       <c r="M9">
-        <v>0.9982134479287557</v>
+        <v>0.9693124157779706</v>
       </c>
       <c r="N9">
-        <v>0.9982134479287557</v>
+        <v>0.9693124157779706</v>
       </c>
       <c r="O9">
-        <v>0.9974870700327291</v>
+        <v>0.9689144509783644</v>
       </c>
       <c r="P9">
-        <v>0.9992748164658503</v>
+        <v>0.993571217354665</v>
       </c>
       <c r="Q9">
-        <v>0.9992748164658503</v>
+        <v>0.993571217354665</v>
       </c>
       <c r="R9">
-        <v>0.9998055007343976</v>
+        <v>1.005700618143012</v>
       </c>
       <c r="S9">
-        <v>0.9998055007343976</v>
+        <v>1.005700618143012</v>
       </c>
       <c r="T9">
-        <v>1.000400341240268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9948657093096324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001234787803666</v>
+        <v>0.4229745072721524</v>
       </c>
       <c r="D10">
-        <v>0.988964241561173</v>
+        <v>1.442098066766317</v>
       </c>
       <c r="E10">
-        <v>1.004499356293827</v>
+        <v>0.6383485235211025</v>
       </c>
       <c r="F10">
-        <v>1.001234787803666</v>
+        <v>0.4229745072721524</v>
       </c>
       <c r="G10">
-        <v>1.01729390290549</v>
+        <v>2.403860163502019</v>
       </c>
       <c r="H10">
-        <v>0.9915556941182255</v>
+        <v>0.4973806265403157</v>
       </c>
       <c r="I10">
-        <v>1.002839956079332</v>
+        <v>0.6383485235211025</v>
       </c>
       <c r="J10">
-        <v>0.988964241561173</v>
+        <v>1.178383744668111</v>
       </c>
       <c r="K10">
-        <v>1.001234787803666</v>
+        <v>0.6383485235211025</v>
       </c>
       <c r="L10">
-        <v>1.004499356293827</v>
+        <v>1.442098066766317</v>
       </c>
       <c r="M10">
-        <v>0.9967317989275</v>
+        <v>0.9325362870192346</v>
       </c>
       <c r="N10">
-        <v>0.9967317989275</v>
+        <v>0.9325362870192346</v>
       </c>
       <c r="O10">
-        <v>0.9950064306577419</v>
+        <v>0.7874844001929283</v>
       </c>
       <c r="P10">
-        <v>0.9982327952195553</v>
+        <v>0.8344736991865239</v>
       </c>
       <c r="Q10">
-        <v>0.9982327952195553</v>
+        <v>0.8344736991865238</v>
       </c>
       <c r="R10">
-        <v>0.998983293365583</v>
+        <v>0.7854424052701685</v>
       </c>
       <c r="S10">
-        <v>0.998983293365583</v>
+        <v>0.7854424052701685</v>
       </c>
       <c r="T10">
-        <v>1.001064656460285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.097174272045003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.006379860594387</v>
+        <v>0.7803208940967324</v>
       </c>
       <c r="D11">
-        <v>0.9809538788644676</v>
+        <v>1.086917177786716</v>
       </c>
       <c r="E11">
-        <v>1.006050471235942</v>
+        <v>0.9892599370802596</v>
       </c>
       <c r="F11">
-        <v>1.006379860594387</v>
+        <v>0.7803208940967324</v>
       </c>
       <c r="G11">
-        <v>1.024596735660762</v>
+        <v>1.300200400438421</v>
       </c>
       <c r="H11">
-        <v>0.9856099764001238</v>
+        <v>0.8531887058759214</v>
       </c>
       <c r="I11">
-        <v>1.004926986959259</v>
+        <v>0.9892599370802596</v>
       </c>
       <c r="J11">
-        <v>0.9809538788644676</v>
+        <v>1.057831143518708</v>
       </c>
       <c r="K11">
-        <v>1.006379860594387</v>
+        <v>0.9892599370802596</v>
       </c>
       <c r="L11">
-        <v>1.006050471235942</v>
+        <v>1.086917177786716</v>
       </c>
       <c r="M11">
-        <v>0.993502175050205</v>
+        <v>0.9336190359417242</v>
       </c>
       <c r="N11">
-        <v>0.993502175050205</v>
+        <v>0.9336190359417242</v>
       </c>
       <c r="O11">
-        <v>0.9908714421668446</v>
+        <v>0.90680892591979</v>
       </c>
       <c r="P11">
-        <v>0.9977947368982657</v>
+        <v>0.9521660029879028</v>
       </c>
       <c r="Q11">
-        <v>0.9977947368982657</v>
+        <v>0.9521660029879028</v>
       </c>
       <c r="R11">
-        <v>0.9999410178222961</v>
+        <v>0.961439486510992</v>
       </c>
       <c r="S11">
-        <v>0.9999410178222961</v>
+        <v>0.961439486510992</v>
       </c>
       <c r="T11">
-        <v>1.001419651619157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.011286376466127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9690644164062651</v>
+        <v>0.8215215956231576</v>
       </c>
       <c r="D12">
-        <v>0.9802252549497712</v>
+        <v>1.13422971753684</v>
       </c>
       <c r="E12">
-        <v>0.9602546650083731</v>
+        <v>0.8934060599894722</v>
       </c>
       <c r="F12">
-        <v>0.9690644164062651</v>
+        <v>0.8215215956231576</v>
       </c>
       <c r="G12">
-        <v>0.5807377993154516</v>
+        <v>1.418257653890527</v>
       </c>
       <c r="H12">
-        <v>1.175046938473264</v>
+        <v>0.8428698585368412</v>
       </c>
       <c r="I12">
-        <v>0.9636430330401394</v>
+        <v>0.8934060599894722</v>
       </c>
       <c r="J12">
-        <v>0.9802252549497712</v>
+        <v>1.057868171978944</v>
       </c>
       <c r="K12">
-        <v>0.9690644164062651</v>
+        <v>0.8934060599894722</v>
       </c>
       <c r="L12">
-        <v>0.9602546650083731</v>
+        <v>1.13422971753684</v>
       </c>
       <c r="M12">
-        <v>0.9702399599790721</v>
+        <v>0.977875656579999</v>
       </c>
       <c r="N12">
-        <v>0.9702399599790721</v>
+        <v>0.977875656579999</v>
       </c>
       <c r="O12">
-        <v>1.038508952810469</v>
+        <v>0.9328737238989464</v>
       </c>
       <c r="P12">
-        <v>0.9698481121214697</v>
+        <v>0.9497191243831568</v>
       </c>
       <c r="Q12">
-        <v>0.9698481121214698</v>
+        <v>0.9497191243831568</v>
       </c>
       <c r="R12">
-        <v>0.9696521881926686</v>
+        <v>0.9356408582847356</v>
       </c>
       <c r="S12">
-        <v>0.9696521881926686</v>
+        <v>0.9356408582847356</v>
       </c>
       <c r="T12">
-        <v>0.938162017865544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.028025509592631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.052375073598307</v>
+        <v>1.195442025606464</v>
       </c>
       <c r="D13">
-        <v>1.366709105250883</v>
+        <v>0.9434587762300305</v>
       </c>
       <c r="E13">
-        <v>0.9050363461714496</v>
+        <v>0.9740217023540081</v>
       </c>
       <c r="F13">
-        <v>1.052375073598307</v>
+        <v>1.195442025606464</v>
       </c>
       <c r="G13">
-        <v>1.095215812843656</v>
+        <v>0.856473752607285</v>
       </c>
       <c r="H13">
-        <v>1.014476184280964</v>
+        <v>1.103735676152943</v>
       </c>
       <c r="I13">
-        <v>0.9490405117343005</v>
+        <v>0.9740217023540081</v>
       </c>
       <c r="J13">
-        <v>1.366709105250883</v>
+        <v>0.9521286056148729</v>
       </c>
       <c r="K13">
-        <v>1.052375073598307</v>
+        <v>0.9740217023540081</v>
       </c>
       <c r="L13">
-        <v>0.9050363461714496</v>
+        <v>0.9434587762300305</v>
       </c>
       <c r="M13">
-        <v>1.135872725711166</v>
+        <v>1.069450400918248</v>
       </c>
       <c r="N13">
-        <v>1.135872725711166</v>
+        <v>1.069450400918248</v>
       </c>
       <c r="O13">
-        <v>1.095407211901099</v>
+        <v>1.080878825996479</v>
       </c>
       <c r="P13">
-        <v>1.10804017500688</v>
+        <v>1.037640834730168</v>
       </c>
       <c r="Q13">
-        <v>1.10804017500688</v>
+        <v>1.037640834730168</v>
       </c>
       <c r="R13">
-        <v>1.094123899654737</v>
+        <v>1.021736051636128</v>
       </c>
       <c r="S13">
-        <v>1.094123899654737</v>
+        <v>1.021736051636128</v>
       </c>
       <c r="T13">
-        <v>1.063808838979927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.004210089760934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9526359153981008</v>
+        <v>0.01762389000000001</v>
       </c>
       <c r="D14">
-        <v>1.962338464812079</v>
+        <v>1.7720427</v>
       </c>
       <c r="E14">
-        <v>0.7440129901615185</v>
+        <v>0.3533654400000002</v>
       </c>
       <c r="F14">
-        <v>0.9526359153981008</v>
+        <v>0.01762389000000001</v>
       </c>
       <c r="G14">
-        <v>0.6202844476594193</v>
+        <v>3.459292599999998</v>
       </c>
       <c r="H14">
-        <v>1.348812791764563</v>
+        <v>0.1342626800000001</v>
       </c>
       <c r="I14">
-        <v>0.8012109449619563</v>
+        <v>0.3533654400000002</v>
       </c>
       <c r="J14">
-        <v>1.962338464812079</v>
+        <v>1.303717199999999</v>
       </c>
       <c r="K14">
-        <v>0.9526359153981008</v>
+        <v>0.3533654400000002</v>
       </c>
       <c r="L14">
-        <v>0.7440129901615185</v>
+        <v>1.7720427</v>
       </c>
       <c r="M14">
-        <v>1.353175727486799</v>
+        <v>0.8948332950000001</v>
       </c>
       <c r="N14">
-        <v>1.353175727486799</v>
+        <v>0.8948332950000001</v>
       </c>
       <c r="O14">
-        <v>1.351721415579387</v>
+        <v>0.6413097566666668</v>
       </c>
       <c r="P14">
-        <v>1.219662456790566</v>
+        <v>0.7143440100000001</v>
       </c>
       <c r="Q14">
-        <v>1.219662456790566</v>
+        <v>0.7143440100000001</v>
       </c>
       <c r="R14">
-        <v>1.15290582144245</v>
+        <v>0.6240993675000002</v>
       </c>
       <c r="S14">
-        <v>1.15290582144245</v>
+        <v>0.6240993675000002</v>
       </c>
       <c r="T14">
-        <v>1.071549259126273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.173384085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7818432552287572</v>
+        <v>0.023300756</v>
       </c>
       <c r="D15">
-        <v>0.8417855322121205</v>
+        <v>0.42160412</v>
       </c>
       <c r="E15">
-        <v>1.051784475542883</v>
+        <v>3.4428622</v>
       </c>
       <c r="F15">
-        <v>0.7818432552287572</v>
+        <v>0.023300756</v>
       </c>
       <c r="G15">
-        <v>0.8329355723140562</v>
+        <v>0.21380688</v>
       </c>
       <c r="H15">
-        <v>1.150130735975715</v>
+        <v>0.39134565</v>
       </c>
       <c r="I15">
-        <v>0.9749389297154238</v>
+        <v>3.4428622</v>
       </c>
       <c r="J15">
-        <v>0.8417855322121205</v>
+        <v>1.134</v>
       </c>
       <c r="K15">
-        <v>0.7818432552287572</v>
+        <v>3.4428622</v>
       </c>
       <c r="L15">
-        <v>1.051784475542883</v>
+        <v>0.42160412</v>
       </c>
       <c r="M15">
-        <v>0.9467850038775016</v>
+        <v>0.222452438</v>
       </c>
       <c r="N15">
-        <v>0.9467850038775016</v>
+        <v>0.222452438</v>
       </c>
       <c r="O15">
-        <v>1.014566914576906</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P15">
-        <v>0.8918044209945868</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q15">
-        <v>0.8918044209945869</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R15">
-        <v>0.8643141295531295</v>
+        <v>1.832657319</v>
       </c>
       <c r="S15">
-        <v>0.8643141295531295</v>
+        <v>1.832657319</v>
       </c>
       <c r="T15">
-        <v>0.9389030834981593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9378199343333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9940819185932098</v>
+        <v>0.0065601054</v>
       </c>
       <c r="D16">
-        <v>1.000924927595751</v>
+        <v>1.6928633</v>
       </c>
       <c r="E16">
-        <v>1.002626968185683</v>
+        <v>0.29935957</v>
       </c>
       <c r="F16">
-        <v>0.9940819185932098</v>
+        <v>0.0065601054</v>
       </c>
       <c r="G16">
-        <v>1.004797546611939</v>
+        <v>4.2341011</v>
       </c>
       <c r="H16">
-        <v>1.000163339636689</v>
+        <v>0.073708238</v>
       </c>
       <c r="I16">
-        <v>0.99995411413679</v>
+        <v>0.29935957</v>
       </c>
       <c r="J16">
-        <v>1.000924927595751</v>
+        <v>1.2320447</v>
       </c>
       <c r="K16">
-        <v>0.9940819185932098</v>
+        <v>0.29935957</v>
       </c>
       <c r="L16">
-        <v>1.002626968185683</v>
+        <v>1.6928633</v>
       </c>
       <c r="M16">
-        <v>1.001775947890717</v>
+        <v>0.8497117027</v>
       </c>
       <c r="N16">
-        <v>1.001775947890717</v>
+        <v>0.8497117027</v>
       </c>
       <c r="O16">
-        <v>1.001238411806041</v>
+        <v>0.5910438811333333</v>
       </c>
       <c r="P16">
-        <v>0.9992112714582144</v>
+        <v>0.6662609918</v>
       </c>
       <c r="Q16">
-        <v>0.9992112714582143</v>
+        <v>0.6662609918</v>
       </c>
       <c r="R16">
-        <v>0.9979289332419632</v>
+        <v>0.57453563635</v>
       </c>
       <c r="S16">
-        <v>0.9979289332419632</v>
+        <v>0.57453563635</v>
       </c>
       <c r="T16">
-        <v>1.00042480246001</v>
+        <v>1.256439502233333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.007252790124973</v>
+        <v>1.4672419</v>
       </c>
       <c r="D17">
-        <v>0.9965985345789835</v>
+        <v>0.79639835</v>
       </c>
       <c r="E17">
-        <v>0.9975083762616221</v>
+        <v>1.0786447</v>
       </c>
       <c r="F17">
-        <v>1.007252790124973</v>
+        <v>1.4672419</v>
       </c>
       <c r="G17">
-        <v>0.9969893294093818</v>
+        <v>0.6117343</v>
       </c>
       <c r="H17">
-        <v>0.9985787378442932</v>
+        <v>1.1804226</v>
       </c>
       <c r="I17">
-        <v>1.000493588642274</v>
+        <v>1.0786447</v>
       </c>
       <c r="J17">
-        <v>0.9965985345789835</v>
+        <v>0.9117587700000001</v>
       </c>
       <c r="K17">
-        <v>1.007252790124973</v>
+        <v>1.0786447</v>
       </c>
       <c r="L17">
-        <v>0.9975083762616221</v>
+        <v>0.79639835</v>
       </c>
       <c r="M17">
-        <v>0.9970534554203028</v>
+        <v>1.131820125</v>
       </c>
       <c r="N17">
-        <v>0.9970534554203028</v>
+        <v>1.131820125</v>
       </c>
       <c r="O17">
-        <v>0.9975618828949662</v>
+        <v>1.14802095</v>
       </c>
       <c r="P17">
-        <v>1.000453233655193</v>
+        <v>1.114094983333333</v>
       </c>
       <c r="Q17">
-        <v>1.000453233655193</v>
+        <v>1.114094983333333</v>
       </c>
       <c r="R17">
-        <v>1.002153122772638</v>
+        <v>1.1052324125</v>
       </c>
       <c r="S17">
-        <v>1.002153122772638</v>
+        <v>1.1052324125</v>
       </c>
       <c r="T17">
-        <v>0.999570226143588</v>
+        <v>1.007700103333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9926607096216354</v>
+        <v>0.1844283720054796</v>
       </c>
       <c r="D18">
-        <v>0.9918426011600969</v>
+        <v>1.046808939178082</v>
       </c>
       <c r="E18">
-        <v>1.00824239562939</v>
+        <v>1.545729855616438</v>
       </c>
       <c r="F18">
-        <v>0.9926607096216354</v>
+        <v>0.1844283720054796</v>
       </c>
       <c r="G18">
-        <v>1.013271013946519</v>
+        <v>1.018414763835617</v>
       </c>
       <c r="H18">
-        <v>0.9948652784591105</v>
+        <v>0.6168950132328767</v>
       </c>
       <c r="I18">
-        <v>1.002026971633378</v>
+        <v>1.545729855616438</v>
       </c>
       <c r="J18">
-        <v>0.9918426011600969</v>
+        <v>1.186441547945205</v>
       </c>
       <c r="K18">
-        <v>0.9926607096216354</v>
+        <v>1.545729855616438</v>
       </c>
       <c r="L18">
-        <v>1.00824239562939</v>
+        <v>1.046808939178082</v>
       </c>
       <c r="M18">
-        <v>1.000042498394744</v>
+        <v>0.6156186555917808</v>
       </c>
       <c r="N18">
-        <v>1.000042498394744</v>
+        <v>0.6156186555917808</v>
       </c>
       <c r="O18">
-        <v>0.9983167584161995</v>
+        <v>0.6160441081388127</v>
       </c>
       <c r="P18">
-        <v>0.997581902137041</v>
+        <v>0.9256557222666665</v>
       </c>
       <c r="Q18">
-        <v>0.9975819021370409</v>
+        <v>0.9256557222666665</v>
       </c>
       <c r="R18">
-        <v>0.9963516040081896</v>
+        <v>1.08067425560411</v>
       </c>
       <c r="S18">
-        <v>0.9963516040081896</v>
+        <v>1.08067425560411</v>
       </c>
       <c r="T18">
-        <v>1.000484828408355</v>
+        <v>0.9331197486356163</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9579639161002264</v>
+        <v>1.160937816915789</v>
       </c>
       <c r="D19">
-        <v>0.979132868425156</v>
+        <v>1.172336561052632</v>
       </c>
       <c r="E19">
-        <v>1.02823048696984</v>
+        <v>0.7419490815789473</v>
       </c>
       <c r="F19">
-        <v>0.9579639161002264</v>
+        <v>1.160937816915789</v>
       </c>
       <c r="G19">
-        <v>1.039539259497659</v>
+        <v>1.936422834736842</v>
       </c>
       <c r="H19">
-        <v>0.9896174577150333</v>
+        <v>0.7730015051578949</v>
       </c>
       <c r="I19">
-        <v>1.006971569602191</v>
+        <v>0.7419490815789473</v>
       </c>
       <c r="J19">
-        <v>0.979132868425156</v>
+        <v>1.016427865263158</v>
       </c>
       <c r="K19">
-        <v>0.9579639161002264</v>
+        <v>0.7419490815789473</v>
       </c>
       <c r="L19">
-        <v>1.02823048696984</v>
+        <v>1.172336561052632</v>
       </c>
       <c r="M19">
-        <v>1.003681677697498</v>
+        <v>1.16663718898421</v>
       </c>
       <c r="N19">
-        <v>1.003681677697498</v>
+        <v>1.16663718898421</v>
       </c>
       <c r="O19">
-        <v>0.9989936043700097</v>
+        <v>1.035425294375439</v>
       </c>
       <c r="P19">
-        <v>0.9884424238317407</v>
+        <v>1.025074486515789</v>
       </c>
       <c r="Q19">
-        <v>0.9884424238317407</v>
+        <v>1.025074486515789</v>
       </c>
       <c r="R19">
-        <v>0.9808227968988621</v>
+        <v>0.9542931352815789</v>
       </c>
       <c r="S19">
-        <v>0.9808227968988621</v>
+        <v>0.9542931352815789</v>
       </c>
       <c r="T19">
-        <v>1.000242593051684</v>
+        <v>1.13351261078421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.1267173961578947</v>
+      </c>
+      <c r="D20">
+        <v>1.063861531578947</v>
+      </c>
+      <c r="E20">
+        <v>1.676284288421053</v>
+      </c>
+      <c r="F20">
+        <v>0.1267173961578947</v>
+      </c>
+      <c r="G20">
+        <v>1.009069868947368</v>
+      </c>
+      <c r="H20">
+        <v>0.5256645878947368</v>
+      </c>
+      <c r="I20">
+        <v>1.676284288421053</v>
+      </c>
+      <c r="J20">
+        <v>1.224837015789473</v>
+      </c>
+      <c r="K20">
+        <v>1.676284288421053</v>
+      </c>
+      <c r="L20">
+        <v>1.063861531578947</v>
+      </c>
+      <c r="M20">
+        <v>0.5952894638684211</v>
+      </c>
+      <c r="N20">
+        <v>0.5952894638684211</v>
+      </c>
+      <c r="O20">
+        <v>0.572081171877193</v>
+      </c>
+      <c r="P20">
+        <v>0.9556210720526316</v>
+      </c>
+      <c r="Q20">
+        <v>0.9556210720526316</v>
+      </c>
+      <c r="R20">
+        <v>1.135786876144737</v>
+      </c>
+      <c r="S20">
+        <v>1.135786876144737</v>
+      </c>
+      <c r="T20">
+        <v>0.9377391147982456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.96233846481208</v>
+      </c>
+      <c r="D21">
+        <v>0.7440129901615185</v>
+      </c>
+      <c r="E21">
+        <v>0.9526359153981008</v>
+      </c>
+      <c r="F21">
+        <v>1.96233846481208</v>
+      </c>
+      <c r="G21">
+        <v>0.6202844476594191</v>
+      </c>
+      <c r="H21">
+        <v>1.348812791764563</v>
+      </c>
+      <c r="I21">
+        <v>0.9526359153981008</v>
+      </c>
+      <c r="J21">
+        <v>0.8012109449619563</v>
+      </c>
+      <c r="K21">
+        <v>0.9526359153981008</v>
+      </c>
+      <c r="L21">
+        <v>0.7440129901615185</v>
+      </c>
+      <c r="M21">
+        <v>1.353175727486799</v>
+      </c>
+      <c r="N21">
+        <v>1.353175727486799</v>
+      </c>
+      <c r="O21">
+        <v>1.351721415579387</v>
+      </c>
+      <c r="P21">
+        <v>1.219662456790566</v>
+      </c>
+      <c r="Q21">
+        <v>1.219662456790567</v>
+      </c>
+      <c r="R21">
+        <v>1.15290582144245</v>
+      </c>
+      <c r="S21">
+        <v>1.15290582144245</v>
+      </c>
+      <c r="T21">
+        <v>1.071549259126273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.8417855322121204</v>
+      </c>
+      <c r="D22">
+        <v>1.051784475542883</v>
+      </c>
+      <c r="E22">
+        <v>0.7818432552287572</v>
+      </c>
+      <c r="F22">
+        <v>0.8417855322121204</v>
+      </c>
+      <c r="G22">
+        <v>0.8329355723140562</v>
+      </c>
+      <c r="H22">
+        <v>1.150130735975715</v>
+      </c>
+      <c r="I22">
+        <v>0.7818432552287572</v>
+      </c>
+      <c r="J22">
+        <v>0.9749389297154238</v>
+      </c>
+      <c r="K22">
+        <v>0.7818432552287572</v>
+      </c>
+      <c r="L22">
+        <v>1.051784475542883</v>
+      </c>
+      <c r="M22">
+        <v>0.9467850038775015</v>
+      </c>
+      <c r="N22">
+        <v>0.9467850038775015</v>
+      </c>
+      <c r="O22">
+        <v>1.014566914576906</v>
+      </c>
+      <c r="P22">
+        <v>0.8918044209945868</v>
+      </c>
+      <c r="Q22">
+        <v>0.8918044209945867</v>
+      </c>
+      <c r="R22">
+        <v>0.8643141295531293</v>
+      </c>
+      <c r="S22">
+        <v>0.8643141295531293</v>
+      </c>
+      <c r="T22">
+        <v>0.9389030834981592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9802252549497712</v>
+      </c>
+      <c r="D23">
+        <v>0.9602546650083731</v>
+      </c>
+      <c r="E23">
+        <v>0.9690644164062651</v>
+      </c>
+      <c r="F23">
+        <v>0.9802252549497712</v>
+      </c>
+      <c r="G23">
+        <v>0.5807377993154514</v>
+      </c>
+      <c r="H23">
+        <v>1.175046938473264</v>
+      </c>
+      <c r="I23">
+        <v>0.9690644164062651</v>
+      </c>
+      <c r="J23">
+        <v>0.9636430330401394</v>
+      </c>
+      <c r="K23">
+        <v>0.9690644164062651</v>
+      </c>
+      <c r="L23">
+        <v>0.9602546650083731</v>
+      </c>
+      <c r="M23">
+        <v>0.9702399599790721</v>
+      </c>
+      <c r="N23">
+        <v>0.9702399599790721</v>
+      </c>
+      <c r="O23">
+        <v>1.038508952810469</v>
+      </c>
+      <c r="P23">
+        <v>0.9698481121214697</v>
+      </c>
+      <c r="Q23">
+        <v>0.9698481121214698</v>
+      </c>
+      <c r="R23">
+        <v>0.9696521881926686</v>
+      </c>
+      <c r="S23">
+        <v>0.9696521881926686</v>
+      </c>
+      <c r="T23">
+        <v>0.938162017865544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.366709105250883</v>
+      </c>
+      <c r="D24">
+        <v>0.9050363461714496</v>
+      </c>
+      <c r="E24">
+        <v>1.052375073598307</v>
+      </c>
+      <c r="F24">
+        <v>1.366709105250883</v>
+      </c>
+      <c r="G24">
+        <v>1.095215812843656</v>
+      </c>
+      <c r="H24">
+        <v>1.014476184280964</v>
+      </c>
+      <c r="I24">
+        <v>1.052375073598307</v>
+      </c>
+      <c r="J24">
+        <v>0.9490405117343005</v>
+      </c>
+      <c r="K24">
+        <v>1.052375073598307</v>
+      </c>
+      <c r="L24">
+        <v>0.9050363461714496</v>
+      </c>
+      <c r="M24">
+        <v>1.135872725711166</v>
+      </c>
+      <c r="N24">
+        <v>1.135872725711166</v>
+      </c>
+      <c r="O24">
+        <v>1.095407211901099</v>
+      </c>
+      <c r="P24">
+        <v>1.10804017500688</v>
+      </c>
+      <c r="Q24">
+        <v>1.10804017500688</v>
+      </c>
+      <c r="R24">
+        <v>1.094123899654737</v>
+      </c>
+      <c r="S24">
+        <v>1.094123899654737</v>
+      </c>
+      <c r="T24">
+        <v>1.063808838979927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.2947409267759335</v>
+      </c>
+      <c r="D25">
+        <v>0.7823876341393746</v>
+      </c>
+      <c r="E25">
+        <v>1.922641056821402</v>
+      </c>
+      <c r="F25">
+        <v>0.2947409267759335</v>
+      </c>
+      <c r="G25">
+        <v>0.4723995746261332</v>
+      </c>
+      <c r="H25">
+        <v>0.7679702042840804</v>
+      </c>
+      <c r="I25">
+        <v>1.922641056821402</v>
+      </c>
+      <c r="J25">
+        <v>1.124381302564498</v>
+      </c>
+      <c r="K25">
+        <v>1.922641056821402</v>
+      </c>
+      <c r="L25">
+        <v>0.7823876341393746</v>
+      </c>
+      <c r="M25">
+        <v>0.538564280457654</v>
+      </c>
+      <c r="N25">
+        <v>0.538564280457654</v>
+      </c>
+      <c r="O25">
+        <v>0.6150329217331295</v>
+      </c>
+      <c r="P25">
+        <v>0.9999232059122368</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999232059122368</v>
+      </c>
+      <c r="R25">
+        <v>1.230602668639528</v>
+      </c>
+      <c r="S25">
+        <v>1.230602668639528</v>
+      </c>
+      <c r="T25">
+        <v>0.8940867832019038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9437921288400345</v>
+      </c>
+      <c r="D26">
+        <v>1.21760410601514</v>
+      </c>
+      <c r="E26">
+        <v>0.6136053547895994</v>
+      </c>
+      <c r="F26">
+        <v>0.9437921288400345</v>
+      </c>
+      <c r="G26">
+        <v>1.321483089610502</v>
+      </c>
+      <c r="H26">
+        <v>0.953024374823385</v>
+      </c>
+      <c r="I26">
+        <v>0.6136053547895994</v>
+      </c>
+      <c r="J26">
+        <v>1.037300525112024</v>
+      </c>
+      <c r="K26">
+        <v>0.6136053547895994</v>
+      </c>
+      <c r="L26">
+        <v>1.21760410601514</v>
+      </c>
+      <c r="M26">
+        <v>1.080698117427587</v>
+      </c>
+      <c r="N26">
+        <v>1.080698117427587</v>
+      </c>
+      <c r="O26">
+        <v>1.038140203226187</v>
+      </c>
+      <c r="P26">
+        <v>0.9250005298815914</v>
+      </c>
+      <c r="Q26">
+        <v>0.9250005298815914</v>
+      </c>
+      <c r="R26">
+        <v>0.8471517361085934</v>
+      </c>
+      <c r="S26">
+        <v>0.8471517361085934</v>
+      </c>
+      <c r="T26">
+        <v>1.014468263198448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9332870537329695</v>
+      </c>
+      <c r="D27">
+        <v>1.030354638435725</v>
+      </c>
+      <c r="E27">
+        <v>1.057489556723735</v>
+      </c>
+      <c r="F27">
+        <v>0.9332870537329695</v>
+      </c>
+      <c r="G27">
+        <v>0.9916688529497869</v>
+      </c>
+      <c r="H27">
+        <v>0.9226002676386351</v>
+      </c>
+      <c r="I27">
+        <v>1.057489556723735</v>
+      </c>
+      <c r="J27">
+        <v>1.042446015061135</v>
+      </c>
+      <c r="K27">
+        <v>1.057489556723735</v>
+      </c>
+      <c r="L27">
+        <v>1.030354638435725</v>
+      </c>
+      <c r="M27">
+        <v>0.9818208460843474</v>
+      </c>
+      <c r="N27">
+        <v>0.9818208460843474</v>
+      </c>
+      <c r="O27">
+        <v>0.9620806532691099</v>
+      </c>
+      <c r="P27">
+        <v>1.00704374963081</v>
+      </c>
+      <c r="Q27">
+        <v>1.00704374963081</v>
+      </c>
+      <c r="R27">
+        <v>1.019655201404041</v>
+      </c>
+      <c r="S27">
+        <v>1.019655201404041</v>
+      </c>
+      <c r="T27">
+        <v>0.9963077307569979</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9116762719493507</v>
+      </c>
+      <c r="D28">
+        <v>1.030701302429575</v>
+      </c>
+      <c r="E28">
+        <v>1.064210833637961</v>
+      </c>
+      <c r="F28">
+        <v>0.9116762719493507</v>
+      </c>
+      <c r="G28">
+        <v>0.8974991971880508</v>
+      </c>
+      <c r="H28">
+        <v>0.9525755071476694</v>
+      </c>
+      <c r="I28">
+        <v>1.064210833637961</v>
+      </c>
+      <c r="J28">
+        <v>1.035875215710145</v>
+      </c>
+      <c r="K28">
+        <v>1.064210833637961</v>
+      </c>
+      <c r="L28">
+        <v>1.030701302429575</v>
+      </c>
+      <c r="M28">
+        <v>0.971188787189463</v>
+      </c>
+      <c r="N28">
+        <v>0.971188787189463</v>
+      </c>
+      <c r="O28">
+        <v>0.9649843605088652</v>
+      </c>
+      <c r="P28">
+        <v>1.002196136005629</v>
+      </c>
+      <c r="Q28">
+        <v>1.002196136005629</v>
+      </c>
+      <c r="R28">
+        <v>1.017699810413712</v>
+      </c>
+      <c r="S28">
+        <v>1.017699810413712</v>
+      </c>
+      <c r="T28">
+        <v>0.982089721343792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.518212798800191</v>
+      </c>
+      <c r="D29">
+        <v>0.7542959308422469</v>
+      </c>
+      <c r="E29">
+        <v>1.344800142458665</v>
+      </c>
+      <c r="F29">
+        <v>1.518212798800191</v>
+      </c>
+      <c r="G29">
+        <v>0.7172016523931195</v>
+      </c>
+      <c r="H29">
+        <v>1.09837201902372</v>
+      </c>
+      <c r="I29">
+        <v>1.344800142458665</v>
+      </c>
+      <c r="J29">
+        <v>0.9005025366637586</v>
+      </c>
+      <c r="K29">
+        <v>1.344800142458665</v>
+      </c>
+      <c r="L29">
+        <v>0.7542959308422469</v>
+      </c>
+      <c r="M29">
+        <v>1.136254364821219</v>
+      </c>
+      <c r="N29">
+        <v>1.136254364821219</v>
+      </c>
+      <c r="O29">
+        <v>1.123626916222053</v>
+      </c>
+      <c r="P29">
+        <v>1.205769624033701</v>
+      </c>
+      <c r="Q29">
+        <v>1.205769624033701</v>
+      </c>
+      <c r="R29">
+        <v>1.240527253639942</v>
+      </c>
+      <c r="S29">
+        <v>1.240527253639942</v>
+      </c>
+      <c r="T29">
+        <v>1.055564180030283</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8330988132607275</v>
+        <v>0.8302050126968812</v>
       </c>
       <c r="D4">
-        <v>1.093328945814302</v>
+        <v>1.096830014845477</v>
       </c>
       <c r="E4">
-        <v>0.946824312724412</v>
+        <v>0.9450089823348395</v>
       </c>
       <c r="F4">
-        <v>0.8330988132607275</v>
+        <v>0.8302050126968812</v>
       </c>
       <c r="G4">
-        <v>1.344600710749345</v>
+        <v>1.293948122686748</v>
       </c>
       <c r="H4">
-        <v>0.8632852805424541</v>
+        <v>0.8733638889548572</v>
       </c>
       <c r="I4">
-        <v>0.946824312724412</v>
+        <v>0.9450089823348395</v>
       </c>
       <c r="J4">
-        <v>1.048030891780529</v>
+        <v>1.050061586194183</v>
       </c>
       <c r="K4">
-        <v>0.946824312724412</v>
+        <v>0.9450089823348395</v>
       </c>
       <c r="L4">
-        <v>1.093328945814302</v>
+        <v>1.096830014845477</v>
       </c>
       <c r="M4">
-        <v>0.9632138795375147</v>
+        <v>0.9635175137711789</v>
       </c>
       <c r="N4">
-        <v>0.9632138795375147</v>
+        <v>0.9635175137711789</v>
       </c>
       <c r="O4">
-        <v>0.9299043465391611</v>
+        <v>0.9334663054990716</v>
       </c>
       <c r="P4">
-        <v>0.9577506905998138</v>
+        <v>0.9573480032923992</v>
       </c>
       <c r="Q4">
-        <v>0.9577506905998138</v>
+        <v>0.9573480032923992</v>
       </c>
       <c r="R4">
-        <v>0.9550190961309634</v>
+        <v>0.9542632480530093</v>
       </c>
       <c r="S4">
-        <v>0.9550190961309634</v>
+        <v>0.9542632480530093</v>
       </c>
       <c r="T4">
-        <v>1.021528159145295</v>
+        <v>1.014902934618831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.7833559280946657</v>
+        <v>0.1381790328212602</v>
       </c>
       <c r="D5">
-        <v>1.109794617608067</v>
+        <v>1.025260583810281</v>
       </c>
       <c r="E5">
-        <v>0.9610976419164261</v>
+        <v>1.734817177724657</v>
       </c>
       <c r="F5">
-        <v>0.7833559280946657</v>
+        <v>0.1381790328212602</v>
       </c>
       <c r="G5">
-        <v>1.332818137093658</v>
+        <v>0.8386271506438306</v>
       </c>
       <c r="H5">
-        <v>0.8434241750763689</v>
+        <v>0.5605527217747885</v>
       </c>
       <c r="I5">
-        <v>0.9610976419164261</v>
+        <v>1.734817177724657</v>
       </c>
       <c r="J5">
-        <v>1.062182030129683</v>
+        <v>1.220061277149977</v>
       </c>
       <c r="K5">
-        <v>0.9610976419164261</v>
+        <v>1.734817177724657</v>
       </c>
       <c r="L5">
-        <v>1.109794617608067</v>
+        <v>1.025260583810281</v>
       </c>
       <c r="M5">
-        <v>0.9465752728513666</v>
+        <v>0.5817198083157706</v>
       </c>
       <c r="N5">
-        <v>0.9465752728513666</v>
+        <v>0.5817198083157706</v>
       </c>
       <c r="O5">
-        <v>0.912191573593034</v>
+        <v>0.5746641128021099</v>
       </c>
       <c r="P5">
-        <v>0.9514160625397198</v>
+        <v>0.9660855981187328</v>
       </c>
       <c r="Q5">
-        <v>0.9514160625397197</v>
+        <v>0.9660855981187328</v>
       </c>
       <c r="R5">
-        <v>0.9538364573838962</v>
+        <v>1.158268493020214</v>
       </c>
       <c r="S5">
-        <v>0.9538364573838962</v>
+        <v>1.158268493020214</v>
       </c>
       <c r="T5">
-        <v>1.015445421653145</v>
+        <v>0.9195829906541325</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4245452260094649</v>
+        <v>0.8330988132607275</v>
       </c>
       <c r="D6">
-        <v>1.432543535701004</v>
+        <v>1.093328945814302</v>
       </c>
       <c r="E6">
-        <v>0.6529450407489424</v>
+        <v>0.946824312724412</v>
       </c>
       <c r="F6">
-        <v>0.4245452260094649</v>
+        <v>0.8330988132607275</v>
       </c>
       <c r="G6">
-        <v>2.372278399287577</v>
+        <v>1.344600710749345</v>
       </c>
       <c r="H6">
-        <v>0.5043864343124184</v>
+        <v>0.8632852805424541</v>
       </c>
       <c r="I6">
-        <v>0.6529450407489424</v>
+        <v>0.946824312724412</v>
       </c>
       <c r="J6">
-        <v>1.176575601121032</v>
+        <v>1.048030891780529</v>
       </c>
       <c r="K6">
-        <v>0.6529450407489424</v>
+        <v>0.946824312724412</v>
       </c>
       <c r="L6">
-        <v>1.432543535701004</v>
+        <v>1.093328945814302</v>
       </c>
       <c r="M6">
-        <v>0.9285443808552346</v>
+        <v>0.9632138795375147</v>
       </c>
       <c r="N6">
-        <v>0.9285443808552346</v>
+        <v>0.9632138795375147</v>
       </c>
       <c r="O6">
-        <v>0.7871583986742959</v>
+        <v>0.9299043465391611</v>
       </c>
       <c r="P6">
-        <v>0.8366779341531373</v>
+        <v>0.9577506905998138</v>
       </c>
       <c r="Q6">
-        <v>0.8366779341531373</v>
+        <v>0.9577506905998138</v>
       </c>
       <c r="R6">
-        <v>0.7907447108020885</v>
+        <v>0.9550190961309634</v>
       </c>
       <c r="S6">
-        <v>0.7907447108020885</v>
+        <v>0.9550190961309634</v>
       </c>
       <c r="T6">
-        <v>1.093879039530073</v>
+        <v>1.021528159145295</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9604978099470423</v>
+        <v>0.7833559280946657</v>
       </c>
       <c r="D7">
-        <v>1.001944084904166</v>
+        <v>1.109794617608067</v>
       </c>
       <c r="E7">
-        <v>1.027458882817283</v>
+        <v>0.9610976419164261</v>
       </c>
       <c r="F7">
-        <v>0.9604978099470423</v>
+        <v>0.7833559280946657</v>
       </c>
       <c r="G7">
-        <v>1.001326286449757</v>
+        <v>1.332818137093658</v>
       </c>
       <c r="H7">
-        <v>0.9806809459149785</v>
+        <v>0.8434241750763689</v>
       </c>
       <c r="I7">
-        <v>1.027458882817283</v>
+        <v>0.9610976419164261</v>
       </c>
       <c r="J7">
-        <v>1.009356537232187</v>
+        <v>1.062182030129683</v>
       </c>
       <c r="K7">
-        <v>1.027458882817283</v>
+        <v>0.9610976419164261</v>
       </c>
       <c r="L7">
-        <v>1.001944084904166</v>
+        <v>1.109794617608067</v>
       </c>
       <c r="M7">
-        <v>0.9812209474256043</v>
+        <v>0.9465752728513666</v>
       </c>
       <c r="N7">
-        <v>0.9812209474256043</v>
+        <v>0.9465752728513666</v>
       </c>
       <c r="O7">
-        <v>0.9810409469220623</v>
+        <v>0.912191573593034</v>
       </c>
       <c r="P7">
-        <v>0.9966335925561639</v>
+        <v>0.9514160625397198</v>
       </c>
       <c r="Q7">
-        <v>0.9966335925561639</v>
+        <v>0.9514160625397197</v>
       </c>
       <c r="R7">
-        <v>1.004339915121444</v>
+        <v>0.9538364573838962</v>
       </c>
       <c r="S7">
-        <v>1.004339915121444</v>
+        <v>0.9538364573838962</v>
       </c>
       <c r="T7">
-        <v>0.9968774245442357</v>
+        <v>1.015445421653145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9965985345789827</v>
+        <v>0.4245452260094649</v>
       </c>
       <c r="D8">
-        <v>0.9975083762616219</v>
+        <v>1.432543535701004</v>
       </c>
       <c r="E8">
-        <v>1.007252790124974</v>
+        <v>0.6529450407489424</v>
       </c>
       <c r="F8">
-        <v>0.9965985345789827</v>
+        <v>0.4245452260094649</v>
       </c>
       <c r="G8">
-        <v>0.9969893294093818</v>
+        <v>2.372278399287577</v>
       </c>
       <c r="H8">
-        <v>0.9985787378442932</v>
+        <v>0.5043864343124184</v>
       </c>
       <c r="I8">
-        <v>1.007252790124974</v>
+        <v>0.6529450407489424</v>
       </c>
       <c r="J8">
-        <v>1.000493588642274</v>
+        <v>1.176575601121032</v>
       </c>
       <c r="K8">
-        <v>1.007252790124974</v>
+        <v>0.6529450407489424</v>
       </c>
       <c r="L8">
-        <v>0.9975083762616219</v>
+        <v>1.432543535701004</v>
       </c>
       <c r="M8">
-        <v>0.9970534554203023</v>
+        <v>0.9285443808552346</v>
       </c>
       <c r="N8">
-        <v>0.9970534554203023</v>
+        <v>0.9285443808552346</v>
       </c>
       <c r="O8">
-        <v>0.9975618828949658</v>
+        <v>0.7871583986742959</v>
       </c>
       <c r="P8">
-        <v>1.000453233655193</v>
+        <v>0.8366779341531373</v>
       </c>
       <c r="Q8">
-        <v>1.000453233655193</v>
+        <v>0.8366779341531373</v>
       </c>
       <c r="R8">
-        <v>1.002153122772638</v>
+        <v>0.7907447108020885</v>
       </c>
       <c r="S8">
-        <v>1.002153122772638</v>
+        <v>0.7907447108020885</v>
       </c>
       <c r="T8">
-        <v>0.9995702261435877</v>
+        <v>1.093879039530073</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9334526809613151</v>
+        <v>0.9604978099470423</v>
       </c>
       <c r="D9">
-        <v>1.005172150594626</v>
+        <v>1.001944084904166</v>
       </c>
       <c r="E9">
-        <v>1.042088820508054</v>
+        <v>1.027458882817283</v>
       </c>
       <c r="F9">
-        <v>0.9334526809613151</v>
+        <v>0.9604978099470423</v>
       </c>
       <c r="G9">
-        <v>1.005010421651394</v>
+        <v>1.001326286449757</v>
       </c>
       <c r="H9">
-        <v>0.9681185213791522</v>
+        <v>0.9806809459149785</v>
       </c>
       <c r="I9">
-        <v>1.042088820508054</v>
+        <v>1.027458882817283</v>
       </c>
       <c r="J9">
-        <v>1.015351660763253</v>
+        <v>1.009356537232187</v>
       </c>
       <c r="K9">
-        <v>1.042088820508054</v>
+        <v>1.027458882817283</v>
       </c>
       <c r="L9">
-        <v>1.005172150594626</v>
+        <v>1.001944084904166</v>
       </c>
       <c r="M9">
-        <v>0.9693124157779706</v>
+        <v>0.9812209474256043</v>
       </c>
       <c r="N9">
-        <v>0.9693124157779706</v>
+        <v>0.9812209474256043</v>
       </c>
       <c r="O9">
-        <v>0.9689144509783644</v>
+        <v>0.9810409469220623</v>
       </c>
       <c r="P9">
-        <v>0.993571217354665</v>
+        <v>0.9966335925561639</v>
       </c>
       <c r="Q9">
-        <v>0.993571217354665</v>
+        <v>0.9966335925561639</v>
       </c>
       <c r="R9">
-        <v>1.005700618143012</v>
+        <v>1.004339915121444</v>
       </c>
       <c r="S9">
-        <v>1.005700618143012</v>
+        <v>1.004339915121444</v>
       </c>
       <c r="T9">
-        <v>0.9948657093096324</v>
+        <v>0.9968774245442357</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4229745072721524</v>
+        <v>0.9965985345789827</v>
       </c>
       <c r="D10">
-        <v>1.442098066766317</v>
+        <v>0.9975083762616219</v>
       </c>
       <c r="E10">
-        <v>0.6383485235211025</v>
+        <v>1.007252790124974</v>
       </c>
       <c r="F10">
-        <v>0.4229745072721524</v>
+        <v>0.9965985345789827</v>
       </c>
       <c r="G10">
-        <v>2.403860163502019</v>
+        <v>0.9969893294093818</v>
       </c>
       <c r="H10">
-        <v>0.4973806265403157</v>
+        <v>0.9985787378442932</v>
       </c>
       <c r="I10">
-        <v>0.6383485235211025</v>
+        <v>1.007252790124974</v>
       </c>
       <c r="J10">
-        <v>1.178383744668111</v>
+        <v>1.000493588642274</v>
       </c>
       <c r="K10">
-        <v>0.6383485235211025</v>
+        <v>1.007252790124974</v>
       </c>
       <c r="L10">
-        <v>1.442098066766317</v>
+        <v>0.9975083762616219</v>
       </c>
       <c r="M10">
-        <v>0.9325362870192346</v>
+        <v>0.9970534554203023</v>
       </c>
       <c r="N10">
-        <v>0.9325362870192346</v>
+        <v>0.9970534554203023</v>
       </c>
       <c r="O10">
-        <v>0.7874844001929283</v>
+        <v>0.9975618828949658</v>
       </c>
       <c r="P10">
-        <v>0.8344736991865239</v>
+        <v>1.000453233655193</v>
       </c>
       <c r="Q10">
-        <v>0.8344736991865238</v>
+        <v>1.000453233655193</v>
       </c>
       <c r="R10">
-        <v>0.7854424052701685</v>
+        <v>1.002153122772638</v>
       </c>
       <c r="S10">
-        <v>0.7854424052701685</v>
+        <v>1.002153122772638</v>
       </c>
       <c r="T10">
-        <v>1.097174272045003</v>
+        <v>0.9995702261435877</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7803208940967324</v>
+        <v>0.9334526809613151</v>
       </c>
       <c r="D11">
-        <v>1.086917177786716</v>
+        <v>1.005172150594626</v>
       </c>
       <c r="E11">
-        <v>0.9892599370802596</v>
+        <v>1.042088820508054</v>
       </c>
       <c r="F11">
-        <v>0.7803208940967324</v>
+        <v>0.9334526809613151</v>
       </c>
       <c r="G11">
-        <v>1.300200400438421</v>
+        <v>1.005010421651394</v>
       </c>
       <c r="H11">
-        <v>0.8531887058759214</v>
+        <v>0.9681185213791522</v>
       </c>
       <c r="I11">
-        <v>0.9892599370802596</v>
+        <v>1.042088820508054</v>
       </c>
       <c r="J11">
-        <v>1.057831143518708</v>
+        <v>1.015351660763253</v>
       </c>
       <c r="K11">
-        <v>0.9892599370802596</v>
+        <v>1.042088820508054</v>
       </c>
       <c r="L11">
-        <v>1.086917177786716</v>
+        <v>1.005172150594626</v>
       </c>
       <c r="M11">
-        <v>0.9336190359417242</v>
+        <v>0.9693124157779706</v>
       </c>
       <c r="N11">
-        <v>0.9336190359417242</v>
+        <v>0.9693124157779706</v>
       </c>
       <c r="O11">
-        <v>0.90680892591979</v>
+        <v>0.9689144509783644</v>
       </c>
       <c r="P11">
-        <v>0.9521660029879028</v>
+        <v>0.993571217354665</v>
       </c>
       <c r="Q11">
-        <v>0.9521660029879028</v>
+        <v>0.993571217354665</v>
       </c>
       <c r="R11">
-        <v>0.961439486510992</v>
+        <v>1.005700618143012</v>
       </c>
       <c r="S11">
-        <v>0.961439486510992</v>
+        <v>1.005700618143012</v>
       </c>
       <c r="T11">
-        <v>1.011286376466127</v>
+        <v>0.9948657093096324</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8215215956231576</v>
+        <v>0.4229745072721524</v>
       </c>
       <c r="D12">
-        <v>1.13422971753684</v>
+        <v>1.442098066766317</v>
       </c>
       <c r="E12">
-        <v>0.8934060599894722</v>
+        <v>0.6383485235211025</v>
       </c>
       <c r="F12">
-        <v>0.8215215956231576</v>
+        <v>0.4229745072721524</v>
       </c>
       <c r="G12">
-        <v>1.418257653890527</v>
+        <v>2.403860163502019</v>
       </c>
       <c r="H12">
-        <v>0.8428698585368412</v>
+        <v>0.4973806265403157</v>
       </c>
       <c r="I12">
-        <v>0.8934060599894722</v>
+        <v>0.6383485235211025</v>
       </c>
       <c r="J12">
-        <v>1.057868171978944</v>
+        <v>1.178383744668111</v>
       </c>
       <c r="K12">
-        <v>0.8934060599894722</v>
+        <v>0.6383485235211025</v>
       </c>
       <c r="L12">
-        <v>1.13422971753684</v>
+        <v>1.442098066766317</v>
       </c>
       <c r="M12">
-        <v>0.977875656579999</v>
+        <v>0.9325362870192346</v>
       </c>
       <c r="N12">
-        <v>0.977875656579999</v>
+        <v>0.9325362870192346</v>
       </c>
       <c r="O12">
-        <v>0.9328737238989464</v>
+        <v>0.7874844001929283</v>
       </c>
       <c r="P12">
-        <v>0.9497191243831568</v>
+        <v>0.8344736991865239</v>
       </c>
       <c r="Q12">
-        <v>0.9497191243831568</v>
+        <v>0.8344736991865238</v>
       </c>
       <c r="R12">
-        <v>0.9356408582847356</v>
+        <v>0.7854424052701685</v>
       </c>
       <c r="S12">
-        <v>0.9356408582847356</v>
+        <v>0.7854424052701685</v>
       </c>
       <c r="T12">
-        <v>1.028025509592631</v>
+        <v>1.097174272045003</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.195442025606464</v>
+        <v>0.7803208940967324</v>
       </c>
       <c r="D13">
-        <v>0.9434587762300305</v>
+        <v>1.086917177786716</v>
       </c>
       <c r="E13">
-        <v>0.9740217023540081</v>
+        <v>0.9892599370802596</v>
       </c>
       <c r="F13">
-        <v>1.195442025606464</v>
+        <v>0.7803208940967324</v>
       </c>
       <c r="G13">
-        <v>0.856473752607285</v>
+        <v>1.300200400438421</v>
       </c>
       <c r="H13">
-        <v>1.103735676152943</v>
+        <v>0.8531887058759214</v>
       </c>
       <c r="I13">
-        <v>0.9740217023540081</v>
+        <v>0.9892599370802596</v>
       </c>
       <c r="J13">
-        <v>0.9521286056148729</v>
+        <v>1.057831143518708</v>
       </c>
       <c r="K13">
-        <v>0.9740217023540081</v>
+        <v>0.9892599370802596</v>
       </c>
       <c r="L13">
-        <v>0.9434587762300305</v>
+        <v>1.086917177786716</v>
       </c>
       <c r="M13">
-        <v>1.069450400918248</v>
+        <v>0.9336190359417242</v>
       </c>
       <c r="N13">
-        <v>1.069450400918248</v>
+        <v>0.9336190359417242</v>
       </c>
       <c r="O13">
-        <v>1.080878825996479</v>
+        <v>0.90680892591979</v>
       </c>
       <c r="P13">
-        <v>1.037640834730168</v>
+        <v>0.9521660029879028</v>
       </c>
       <c r="Q13">
-        <v>1.037640834730168</v>
+        <v>0.9521660029879028</v>
       </c>
       <c r="R13">
-        <v>1.021736051636128</v>
+        <v>0.961439486510992</v>
       </c>
       <c r="S13">
-        <v>1.021736051636128</v>
+        <v>0.961439486510992</v>
       </c>
       <c r="T13">
-        <v>1.004210089760934</v>
+        <v>1.011286376466127</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.01762389000000001</v>
+        <v>0.8215215956231576</v>
       </c>
       <c r="D14">
-        <v>1.7720427</v>
+        <v>1.13422971753684</v>
       </c>
       <c r="E14">
-        <v>0.3533654400000002</v>
+        <v>0.8934060599894722</v>
       </c>
       <c r="F14">
-        <v>0.01762389000000001</v>
+        <v>0.8215215956231576</v>
       </c>
       <c r="G14">
-        <v>3.459292599999998</v>
+        <v>1.418257653890527</v>
       </c>
       <c r="H14">
-        <v>0.1342626800000001</v>
+        <v>0.8428698585368412</v>
       </c>
       <c r="I14">
-        <v>0.3533654400000002</v>
+        <v>0.8934060599894722</v>
       </c>
       <c r="J14">
-        <v>1.303717199999999</v>
+        <v>1.057868171978944</v>
       </c>
       <c r="K14">
-        <v>0.3533654400000002</v>
+        <v>0.8934060599894722</v>
       </c>
       <c r="L14">
-        <v>1.7720427</v>
+        <v>1.13422971753684</v>
       </c>
       <c r="M14">
-        <v>0.8948332950000001</v>
+        <v>0.977875656579999</v>
       </c>
       <c r="N14">
-        <v>0.8948332950000001</v>
+        <v>0.977875656579999</v>
       </c>
       <c r="O14">
-        <v>0.6413097566666668</v>
+        <v>0.9328737238989464</v>
       </c>
       <c r="P14">
-        <v>0.7143440100000001</v>
+        <v>0.9497191243831568</v>
       </c>
       <c r="Q14">
-        <v>0.7143440100000001</v>
+        <v>0.9497191243831568</v>
       </c>
       <c r="R14">
-        <v>0.6240993675000002</v>
+        <v>0.9356408582847356</v>
       </c>
       <c r="S14">
-        <v>0.6240993675000002</v>
+        <v>0.9356408582847356</v>
       </c>
       <c r="T14">
-        <v>1.173384085</v>
+        <v>1.028025509592631</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.023300756</v>
+        <v>1.195442025606464</v>
       </c>
       <c r="D15">
-        <v>0.42160412</v>
+        <v>0.9434587762300305</v>
       </c>
       <c r="E15">
-        <v>3.4428622</v>
+        <v>0.9740217023540081</v>
       </c>
       <c r="F15">
-        <v>0.023300756</v>
+        <v>1.195442025606464</v>
       </c>
       <c r="G15">
-        <v>0.21380688</v>
+        <v>0.856473752607285</v>
       </c>
       <c r="H15">
-        <v>0.39134565</v>
+        <v>1.103735676152943</v>
       </c>
       <c r="I15">
-        <v>3.4428622</v>
+        <v>0.9740217023540081</v>
       </c>
       <c r="J15">
-        <v>1.134</v>
+        <v>0.9521286056148729</v>
       </c>
       <c r="K15">
-        <v>3.4428622</v>
+        <v>0.9740217023540081</v>
       </c>
       <c r="L15">
-        <v>0.42160412</v>
+        <v>0.9434587762300305</v>
       </c>
       <c r="M15">
-        <v>0.222452438</v>
+        <v>1.069450400918248</v>
       </c>
       <c r="N15">
-        <v>0.222452438</v>
+        <v>1.069450400918248</v>
       </c>
       <c r="O15">
-        <v>0.2787501753333333</v>
+        <v>1.080878825996479</v>
       </c>
       <c r="P15">
-        <v>1.295922358666667</v>
+        <v>1.037640834730168</v>
       </c>
       <c r="Q15">
-        <v>1.295922358666667</v>
+        <v>1.037640834730168</v>
       </c>
       <c r="R15">
-        <v>1.832657319</v>
+        <v>1.021736051636128</v>
       </c>
       <c r="S15">
-        <v>1.832657319</v>
+        <v>1.021736051636128</v>
       </c>
       <c r="T15">
-        <v>0.9378199343333332</v>
+        <v>1.004210089760934</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.0065601054</v>
+        <v>0.01762389000000001</v>
       </c>
       <c r="D16">
-        <v>1.6928633</v>
+        <v>1.7720427</v>
       </c>
       <c r="E16">
-        <v>0.29935957</v>
+        <v>0.3533654400000002</v>
       </c>
       <c r="F16">
-        <v>0.0065601054</v>
+        <v>0.01762389000000001</v>
       </c>
       <c r="G16">
-        <v>4.2341011</v>
+        <v>3.459292599999998</v>
       </c>
       <c r="H16">
-        <v>0.073708238</v>
+        <v>0.1342626800000001</v>
       </c>
       <c r="I16">
-        <v>0.29935957</v>
+        <v>0.3533654400000002</v>
       </c>
       <c r="J16">
-        <v>1.2320447</v>
+        <v>1.303717199999999</v>
       </c>
       <c r="K16">
-        <v>0.29935957</v>
+        <v>0.3533654400000002</v>
       </c>
       <c r="L16">
-        <v>1.6928633</v>
+        <v>1.7720427</v>
       </c>
       <c r="M16">
-        <v>0.8497117027</v>
+        <v>0.8948332950000001</v>
       </c>
       <c r="N16">
-        <v>0.8497117027</v>
+        <v>0.8948332950000001</v>
       </c>
       <c r="O16">
-        <v>0.5910438811333333</v>
+        <v>0.6413097566666668</v>
       </c>
       <c r="P16">
-        <v>0.6662609918</v>
+        <v>0.7143440100000001</v>
       </c>
       <c r="Q16">
-        <v>0.6662609918</v>
+        <v>0.7143440100000001</v>
       </c>
       <c r="R16">
-        <v>0.57453563635</v>
+        <v>0.6240993675000002</v>
       </c>
       <c r="S16">
-        <v>0.57453563635</v>
+        <v>0.6240993675000002</v>
       </c>
       <c r="T16">
-        <v>1.256439502233333</v>
+        <v>1.173384085</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.4672419</v>
+        <v>0.023300756</v>
       </c>
       <c r="D17">
-        <v>0.79639835</v>
+        <v>0.42160412</v>
       </c>
       <c r="E17">
-        <v>1.0786447</v>
+        <v>3.4428622</v>
       </c>
       <c r="F17">
-        <v>1.4672419</v>
+        <v>0.023300756</v>
       </c>
       <c r="G17">
-        <v>0.6117343</v>
+        <v>0.21380688</v>
       </c>
       <c r="H17">
-        <v>1.1804226</v>
+        <v>0.39134565</v>
       </c>
       <c r="I17">
-        <v>1.0786447</v>
+        <v>3.4428622</v>
       </c>
       <c r="J17">
-        <v>0.9117587700000001</v>
+        <v>1.134</v>
       </c>
       <c r="K17">
-        <v>1.0786447</v>
+        <v>3.4428622</v>
       </c>
       <c r="L17">
-        <v>0.79639835</v>
+        <v>0.42160412</v>
       </c>
       <c r="M17">
-        <v>1.131820125</v>
+        <v>0.222452438</v>
       </c>
       <c r="N17">
-        <v>1.131820125</v>
+        <v>0.222452438</v>
       </c>
       <c r="O17">
-        <v>1.14802095</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P17">
-        <v>1.114094983333333</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q17">
-        <v>1.114094983333333</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R17">
-        <v>1.1052324125</v>
+        <v>1.832657319</v>
       </c>
       <c r="S17">
-        <v>1.1052324125</v>
+        <v>1.832657319</v>
       </c>
       <c r="T17">
-        <v>1.007700103333333</v>
+        <v>0.9378199343333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.1844283720054796</v>
+        <v>0.0065601054</v>
       </c>
       <c r="D18">
-        <v>1.046808939178082</v>
+        <v>1.6928633</v>
       </c>
       <c r="E18">
-        <v>1.545729855616438</v>
+        <v>0.29935957</v>
       </c>
       <c r="F18">
-        <v>0.1844283720054796</v>
+        <v>0.0065601054</v>
       </c>
       <c r="G18">
-        <v>1.018414763835617</v>
+        <v>4.2341011</v>
       </c>
       <c r="H18">
-        <v>0.6168950132328767</v>
+        <v>0.073708238</v>
       </c>
       <c r="I18">
-        <v>1.545729855616438</v>
+        <v>0.29935957</v>
       </c>
       <c r="J18">
-        <v>1.186441547945205</v>
+        <v>1.2320447</v>
       </c>
       <c r="K18">
-        <v>1.545729855616438</v>
+        <v>0.29935957</v>
       </c>
       <c r="L18">
-        <v>1.046808939178082</v>
+        <v>1.6928633</v>
       </c>
       <c r="M18">
-        <v>0.6156186555917808</v>
+        <v>0.8497117027</v>
       </c>
       <c r="N18">
-        <v>0.6156186555917808</v>
+        <v>0.8497117027</v>
       </c>
       <c r="O18">
-        <v>0.6160441081388127</v>
+        <v>0.5910438811333333</v>
       </c>
       <c r="P18">
-        <v>0.9256557222666665</v>
+        <v>0.6662609918</v>
       </c>
       <c r="Q18">
-        <v>0.9256557222666665</v>
+        <v>0.6662609918</v>
       </c>
       <c r="R18">
-        <v>1.08067425560411</v>
+        <v>0.57453563635</v>
       </c>
       <c r="S18">
-        <v>1.08067425560411</v>
+        <v>0.57453563635</v>
       </c>
       <c r="T18">
-        <v>0.9331197486356163</v>
+        <v>1.256439502233333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.160937816915789</v>
+        <v>1.4672419</v>
       </c>
       <c r="D19">
-        <v>1.172336561052632</v>
+        <v>0.79639835</v>
       </c>
       <c r="E19">
-        <v>0.7419490815789473</v>
+        <v>1.0786447</v>
       </c>
       <c r="F19">
-        <v>1.160937816915789</v>
+        <v>1.4672419</v>
       </c>
       <c r="G19">
-        <v>1.936422834736842</v>
+        <v>0.6117343</v>
       </c>
       <c r="H19">
-        <v>0.7730015051578949</v>
+        <v>1.1804226</v>
       </c>
       <c r="I19">
-        <v>0.7419490815789473</v>
+        <v>1.0786447</v>
       </c>
       <c r="J19">
-        <v>1.016427865263158</v>
+        <v>0.9117587700000001</v>
       </c>
       <c r="K19">
-        <v>0.7419490815789473</v>
+        <v>1.0786447</v>
       </c>
       <c r="L19">
-        <v>1.172336561052632</v>
+        <v>0.79639835</v>
       </c>
       <c r="M19">
-        <v>1.16663718898421</v>
+        <v>1.131820125</v>
       </c>
       <c r="N19">
-        <v>1.16663718898421</v>
+        <v>1.131820125</v>
       </c>
       <c r="O19">
-        <v>1.035425294375439</v>
+        <v>1.14802095</v>
       </c>
       <c r="P19">
-        <v>1.025074486515789</v>
+        <v>1.114094983333333</v>
       </c>
       <c r="Q19">
-        <v>1.025074486515789</v>
+        <v>1.114094983333333</v>
       </c>
       <c r="R19">
-        <v>0.9542931352815789</v>
+        <v>1.1052324125</v>
       </c>
       <c r="S19">
-        <v>0.9542931352815789</v>
+        <v>1.1052324125</v>
       </c>
       <c r="T19">
-        <v>1.13351261078421</v>
+        <v>1.007700103333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.1267173961578947</v>
+        <v>0.1844283720054796</v>
       </c>
       <c r="D20">
-        <v>1.063861531578947</v>
+        <v>1.046808939178082</v>
       </c>
       <c r="E20">
-        <v>1.676284288421053</v>
+        <v>1.545729855616438</v>
       </c>
       <c r="F20">
-        <v>0.1267173961578947</v>
+        <v>0.1844283720054796</v>
       </c>
       <c r="G20">
-        <v>1.009069868947368</v>
+        <v>1.018414763835617</v>
       </c>
       <c r="H20">
-        <v>0.5256645878947368</v>
+        <v>0.6168950132328767</v>
       </c>
       <c r="I20">
-        <v>1.676284288421053</v>
+        <v>1.545729855616438</v>
       </c>
       <c r="J20">
-        <v>1.224837015789473</v>
+        <v>1.186441547945205</v>
       </c>
       <c r="K20">
-        <v>1.676284288421053</v>
+        <v>1.545729855616438</v>
       </c>
       <c r="L20">
-        <v>1.063861531578947</v>
+        <v>1.046808939178082</v>
       </c>
       <c r="M20">
-        <v>0.5952894638684211</v>
+        <v>0.6156186555917808</v>
       </c>
       <c r="N20">
-        <v>0.5952894638684211</v>
+        <v>0.6156186555917808</v>
       </c>
       <c r="O20">
-        <v>0.572081171877193</v>
+        <v>0.6160441081388127</v>
       </c>
       <c r="P20">
-        <v>0.9556210720526316</v>
+        <v>0.9256557222666665</v>
       </c>
       <c r="Q20">
-        <v>0.9556210720526316</v>
+        <v>0.9256557222666665</v>
       </c>
       <c r="R20">
-        <v>1.135786876144737</v>
+        <v>1.08067425560411</v>
       </c>
       <c r="S20">
-        <v>1.135786876144737</v>
+        <v>1.08067425560411</v>
       </c>
       <c r="T20">
-        <v>0.9377391147982456</v>
+        <v>0.9331197486356163</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.96233846481208</v>
+        <v>1.160937816915789</v>
       </c>
       <c r="D21">
-        <v>0.7440129901615185</v>
+        <v>1.172336561052632</v>
       </c>
       <c r="E21">
-        <v>0.9526359153981008</v>
+        <v>0.7419490815789473</v>
       </c>
       <c r="F21">
-        <v>1.96233846481208</v>
+        <v>1.160937816915789</v>
       </c>
       <c r="G21">
-        <v>0.6202844476594191</v>
+        <v>1.936422834736842</v>
       </c>
       <c r="H21">
-        <v>1.348812791764563</v>
+        <v>0.7730015051578949</v>
       </c>
       <c r="I21">
-        <v>0.9526359153981008</v>
+        <v>0.7419490815789473</v>
       </c>
       <c r="J21">
-        <v>0.8012109449619563</v>
+        <v>1.016427865263158</v>
       </c>
       <c r="K21">
-        <v>0.9526359153981008</v>
+        <v>0.7419490815789473</v>
       </c>
       <c r="L21">
-        <v>0.7440129901615185</v>
+        <v>1.172336561052632</v>
       </c>
       <c r="M21">
-        <v>1.353175727486799</v>
+        <v>1.16663718898421</v>
       </c>
       <c r="N21">
-        <v>1.353175727486799</v>
+        <v>1.16663718898421</v>
       </c>
       <c r="O21">
-        <v>1.351721415579387</v>
+        <v>1.035425294375439</v>
       </c>
       <c r="P21">
-        <v>1.219662456790566</v>
+        <v>1.025074486515789</v>
       </c>
       <c r="Q21">
-        <v>1.219662456790567</v>
+        <v>1.025074486515789</v>
       </c>
       <c r="R21">
-        <v>1.15290582144245</v>
+        <v>0.9542931352815789</v>
       </c>
       <c r="S21">
-        <v>1.15290582144245</v>
+        <v>0.9542931352815789</v>
       </c>
       <c r="T21">
-        <v>1.071549259126273</v>
+        <v>1.13351261078421</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8417855322121204</v>
+        <v>0.1267173961578947</v>
       </c>
       <c r="D22">
-        <v>1.051784475542883</v>
+        <v>1.063861531578947</v>
       </c>
       <c r="E22">
-        <v>0.7818432552287572</v>
+        <v>1.676284288421053</v>
       </c>
       <c r="F22">
-        <v>0.8417855322121204</v>
+        <v>0.1267173961578947</v>
       </c>
       <c r="G22">
-        <v>0.8329355723140562</v>
+        <v>1.009069868947368</v>
       </c>
       <c r="H22">
-        <v>1.150130735975715</v>
+        <v>0.5256645878947368</v>
       </c>
       <c r="I22">
-        <v>0.7818432552287572</v>
+        <v>1.676284288421053</v>
       </c>
       <c r="J22">
-        <v>0.9749389297154238</v>
+        <v>1.224837015789473</v>
       </c>
       <c r="K22">
-        <v>0.7818432552287572</v>
+        <v>1.676284288421053</v>
       </c>
       <c r="L22">
-        <v>1.051784475542883</v>
+        <v>1.063861531578947</v>
       </c>
       <c r="M22">
-        <v>0.9467850038775015</v>
+        <v>0.5952894638684211</v>
       </c>
       <c r="N22">
-        <v>0.9467850038775015</v>
+        <v>0.5952894638684211</v>
       </c>
       <c r="O22">
-        <v>1.014566914576906</v>
+        <v>0.572081171877193</v>
       </c>
       <c r="P22">
-        <v>0.8918044209945868</v>
+        <v>0.9556210720526316</v>
       </c>
       <c r="Q22">
-        <v>0.8918044209945867</v>
+        <v>0.9556210720526316</v>
       </c>
       <c r="R22">
-        <v>0.8643141295531293</v>
+        <v>1.135786876144737</v>
       </c>
       <c r="S22">
-        <v>0.8643141295531293</v>
+        <v>1.135786876144737</v>
       </c>
       <c r="T22">
-        <v>0.9389030834981592</v>
+        <v>0.9377391147982456</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9802252549497712</v>
+        <v>1.96233846481208</v>
       </c>
       <c r="D23">
-        <v>0.9602546650083731</v>
+        <v>0.7440129901615185</v>
       </c>
       <c r="E23">
-        <v>0.9690644164062651</v>
+        <v>0.9526359153981008</v>
       </c>
       <c r="F23">
-        <v>0.9802252549497712</v>
+        <v>1.96233846481208</v>
       </c>
       <c r="G23">
-        <v>0.5807377993154514</v>
+        <v>0.6202844476594191</v>
       </c>
       <c r="H23">
-        <v>1.175046938473264</v>
+        <v>1.348812791764563</v>
       </c>
       <c r="I23">
-        <v>0.9690644164062651</v>
+        <v>0.9526359153981008</v>
       </c>
       <c r="J23">
-        <v>0.9636430330401394</v>
+        <v>0.8012109449619563</v>
       </c>
       <c r="K23">
-        <v>0.9690644164062651</v>
+        <v>0.9526359153981008</v>
       </c>
       <c r="L23">
-        <v>0.9602546650083731</v>
+        <v>0.7440129901615185</v>
       </c>
       <c r="M23">
-        <v>0.9702399599790721</v>
+        <v>1.353175727486799</v>
       </c>
       <c r="N23">
-        <v>0.9702399599790721</v>
+        <v>1.353175727486799</v>
       </c>
       <c r="O23">
-        <v>1.038508952810469</v>
+        <v>1.351721415579387</v>
       </c>
       <c r="P23">
-        <v>0.9698481121214697</v>
+        <v>1.219662456790566</v>
       </c>
       <c r="Q23">
-        <v>0.9698481121214698</v>
+        <v>1.219662456790567</v>
       </c>
       <c r="R23">
-        <v>0.9696521881926686</v>
+        <v>1.15290582144245</v>
       </c>
       <c r="S23">
-        <v>0.9696521881926686</v>
+        <v>1.15290582144245</v>
       </c>
       <c r="T23">
-        <v>0.938162017865544</v>
+        <v>1.071549259126273</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.366709105250883</v>
+        <v>0.8417855322121204</v>
       </c>
       <c r="D24">
-        <v>0.9050363461714496</v>
+        <v>1.051784475542883</v>
       </c>
       <c r="E24">
-        <v>1.052375073598307</v>
+        <v>0.7818432552287572</v>
       </c>
       <c r="F24">
-        <v>1.366709105250883</v>
+        <v>0.8417855322121204</v>
       </c>
       <c r="G24">
-        <v>1.095215812843656</v>
+        <v>0.8329355723140562</v>
       </c>
       <c r="H24">
-        <v>1.014476184280964</v>
+        <v>1.150130735975715</v>
       </c>
       <c r="I24">
-        <v>1.052375073598307</v>
+        <v>0.7818432552287572</v>
       </c>
       <c r="J24">
-        <v>0.9490405117343005</v>
+        <v>0.9749389297154238</v>
       </c>
       <c r="K24">
-        <v>1.052375073598307</v>
+        <v>0.7818432552287572</v>
       </c>
       <c r="L24">
-        <v>0.9050363461714496</v>
+        <v>1.051784475542883</v>
       </c>
       <c r="M24">
-        <v>1.135872725711166</v>
+        <v>0.9467850038775015</v>
       </c>
       <c r="N24">
-        <v>1.135872725711166</v>
+        <v>0.9467850038775015</v>
       </c>
       <c r="O24">
-        <v>1.095407211901099</v>
+        <v>1.014566914576906</v>
       </c>
       <c r="P24">
-        <v>1.10804017500688</v>
+        <v>0.8918044209945868</v>
       </c>
       <c r="Q24">
-        <v>1.10804017500688</v>
+        <v>0.8918044209945867</v>
       </c>
       <c r="R24">
-        <v>1.094123899654737</v>
+        <v>0.8643141295531293</v>
       </c>
       <c r="S24">
-        <v>1.094123899654737</v>
+        <v>0.8643141295531293</v>
       </c>
       <c r="T24">
-        <v>1.063808838979927</v>
+        <v>0.9389030834981592</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.2947409267759335</v>
+        <v>0.9802252549497712</v>
       </c>
       <c r="D25">
-        <v>0.7823876341393746</v>
+        <v>0.9602546650083731</v>
       </c>
       <c r="E25">
-        <v>1.922641056821402</v>
+        <v>0.9690644164062651</v>
       </c>
       <c r="F25">
-        <v>0.2947409267759335</v>
+        <v>0.9802252549497712</v>
       </c>
       <c r="G25">
-        <v>0.4723995746261332</v>
+        <v>0.5807377993154514</v>
       </c>
       <c r="H25">
-        <v>0.7679702042840804</v>
+        <v>1.175046938473264</v>
       </c>
       <c r="I25">
-        <v>1.922641056821402</v>
+        <v>0.9690644164062651</v>
       </c>
       <c r="J25">
-        <v>1.124381302564498</v>
+        <v>0.9636430330401394</v>
       </c>
       <c r="K25">
-        <v>1.922641056821402</v>
+        <v>0.9690644164062651</v>
       </c>
       <c r="L25">
-        <v>0.7823876341393746</v>
+        <v>0.9602546650083731</v>
       </c>
       <c r="M25">
-        <v>0.538564280457654</v>
+        <v>0.9702399599790721</v>
       </c>
       <c r="N25">
-        <v>0.538564280457654</v>
+        <v>0.9702399599790721</v>
       </c>
       <c r="O25">
-        <v>0.6150329217331295</v>
+        <v>1.038508952810469</v>
       </c>
       <c r="P25">
-        <v>0.9999232059122368</v>
+        <v>0.9698481121214697</v>
       </c>
       <c r="Q25">
-        <v>0.9999232059122368</v>
+        <v>0.9698481121214698</v>
       </c>
       <c r="R25">
-        <v>1.230602668639528</v>
+        <v>0.9696521881926686</v>
       </c>
       <c r="S25">
-        <v>1.230602668639528</v>
+        <v>0.9696521881926686</v>
       </c>
       <c r="T25">
-        <v>0.8940867832019038</v>
+        <v>0.938162017865544</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9437921288400345</v>
+        <v>1.366709105250883</v>
       </c>
       <c r="D26">
-        <v>1.21760410601514</v>
+        <v>0.9050363461714496</v>
       </c>
       <c r="E26">
-        <v>0.6136053547895994</v>
+        <v>1.052375073598307</v>
       </c>
       <c r="F26">
-        <v>0.9437921288400345</v>
+        <v>1.366709105250883</v>
       </c>
       <c r="G26">
-        <v>1.321483089610502</v>
+        <v>1.095215812843656</v>
       </c>
       <c r="H26">
-        <v>0.953024374823385</v>
+        <v>1.014476184280964</v>
       </c>
       <c r="I26">
-        <v>0.6136053547895994</v>
+        <v>1.052375073598307</v>
       </c>
       <c r="J26">
-        <v>1.037300525112024</v>
+        <v>0.9490405117343005</v>
       </c>
       <c r="K26">
-        <v>0.6136053547895994</v>
+        <v>1.052375073598307</v>
       </c>
       <c r="L26">
-        <v>1.21760410601514</v>
+        <v>0.9050363461714496</v>
       </c>
       <c r="M26">
-        <v>1.080698117427587</v>
+        <v>1.135872725711166</v>
       </c>
       <c r="N26">
-        <v>1.080698117427587</v>
+        <v>1.135872725711166</v>
       </c>
       <c r="O26">
-        <v>1.038140203226187</v>
+        <v>1.095407211901099</v>
       </c>
       <c r="P26">
-        <v>0.9250005298815914</v>
+        <v>1.10804017500688</v>
       </c>
       <c r="Q26">
-        <v>0.9250005298815914</v>
+        <v>1.10804017500688</v>
       </c>
       <c r="R26">
-        <v>0.8471517361085934</v>
+        <v>1.094123899654737</v>
       </c>
       <c r="S26">
-        <v>0.8471517361085934</v>
+        <v>1.094123899654737</v>
       </c>
       <c r="T26">
-        <v>1.014468263198448</v>
+        <v>1.063808838979927</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9332870537329695</v>
+        <v>0.2947409267759335</v>
       </c>
       <c r="D27">
-        <v>1.030354638435725</v>
+        <v>0.7823876341393746</v>
       </c>
       <c r="E27">
-        <v>1.057489556723735</v>
+        <v>1.922641056821402</v>
       </c>
       <c r="F27">
-        <v>0.9332870537329695</v>
+        <v>0.2947409267759335</v>
       </c>
       <c r="G27">
-        <v>0.9916688529497869</v>
+        <v>0.4723995746261332</v>
       </c>
       <c r="H27">
-        <v>0.9226002676386351</v>
+        <v>0.7679702042840804</v>
       </c>
       <c r="I27">
-        <v>1.057489556723735</v>
+        <v>1.922641056821402</v>
       </c>
       <c r="J27">
-        <v>1.042446015061135</v>
+        <v>1.124381302564498</v>
       </c>
       <c r="K27">
-        <v>1.057489556723735</v>
+        <v>1.922641056821402</v>
       </c>
       <c r="L27">
-        <v>1.030354638435725</v>
+        <v>0.7823876341393746</v>
       </c>
       <c r="M27">
-        <v>0.9818208460843474</v>
+        <v>0.538564280457654</v>
       </c>
       <c r="N27">
-        <v>0.9818208460843474</v>
+        <v>0.538564280457654</v>
       </c>
       <c r="O27">
-        <v>0.9620806532691099</v>
+        <v>0.6150329217331295</v>
       </c>
       <c r="P27">
-        <v>1.00704374963081</v>
+        <v>0.9999232059122368</v>
       </c>
       <c r="Q27">
-        <v>1.00704374963081</v>
+        <v>0.9999232059122368</v>
       </c>
       <c r="R27">
-        <v>1.019655201404041</v>
+        <v>1.230602668639528</v>
       </c>
       <c r="S27">
-        <v>1.019655201404041</v>
+        <v>1.230602668639528</v>
       </c>
       <c r="T27">
-        <v>0.9963077307569979</v>
+        <v>0.8940867832019038</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9116762719493507</v>
+        <v>0.9437921288400345</v>
       </c>
       <c r="D28">
-        <v>1.030701302429575</v>
+        <v>1.21760410601514</v>
       </c>
       <c r="E28">
-        <v>1.064210833637961</v>
+        <v>0.6136053547895994</v>
       </c>
       <c r="F28">
-        <v>0.9116762719493507</v>
+        <v>0.9437921288400345</v>
       </c>
       <c r="G28">
-        <v>0.8974991971880508</v>
+        <v>1.321483089610502</v>
       </c>
       <c r="H28">
-        <v>0.9525755071476694</v>
+        <v>0.953024374823385</v>
       </c>
       <c r="I28">
-        <v>1.064210833637961</v>
+        <v>0.6136053547895994</v>
       </c>
       <c r="J28">
-        <v>1.035875215710145</v>
+        <v>1.037300525112024</v>
       </c>
       <c r="K28">
-        <v>1.064210833637961</v>
+        <v>0.6136053547895994</v>
       </c>
       <c r="L28">
-        <v>1.030701302429575</v>
+        <v>1.21760410601514</v>
       </c>
       <c r="M28">
-        <v>0.971188787189463</v>
+        <v>1.080698117427587</v>
       </c>
       <c r="N28">
-        <v>0.971188787189463</v>
+        <v>1.080698117427587</v>
       </c>
       <c r="O28">
-        <v>0.9649843605088652</v>
+        <v>1.038140203226187</v>
       </c>
       <c r="P28">
-        <v>1.002196136005629</v>
+        <v>0.9250005298815914</v>
       </c>
       <c r="Q28">
-        <v>1.002196136005629</v>
+        <v>0.9250005298815914</v>
       </c>
       <c r="R28">
-        <v>1.017699810413712</v>
+        <v>0.8471517361085934</v>
       </c>
       <c r="S28">
-        <v>1.017699810413712</v>
+        <v>0.8471517361085934</v>
       </c>
       <c r="T28">
-        <v>0.982089721343792</v>
+        <v>1.014468263198448</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9332870537329695</v>
+      </c>
+      <c r="D29">
+        <v>1.030354638435725</v>
+      </c>
+      <c r="E29">
+        <v>1.057489556723735</v>
+      </c>
+      <c r="F29">
+        <v>0.9332870537329695</v>
+      </c>
+      <c r="G29">
+        <v>0.9916688529497869</v>
+      </c>
+      <c r="H29">
+        <v>0.9226002676386351</v>
+      </c>
+      <c r="I29">
+        <v>1.057489556723735</v>
+      </c>
+      <c r="J29">
+        <v>1.042446015061135</v>
+      </c>
+      <c r="K29">
+        <v>1.057489556723735</v>
+      </c>
+      <c r="L29">
+        <v>1.030354638435725</v>
+      </c>
+      <c r="M29">
+        <v>0.9818208460843474</v>
+      </c>
+      <c r="N29">
+        <v>0.9818208460843474</v>
+      </c>
+      <c r="O29">
+        <v>0.9620806532691099</v>
+      </c>
+      <c r="P29">
+        <v>1.00704374963081</v>
+      </c>
+      <c r="Q29">
+        <v>1.00704374963081</v>
+      </c>
+      <c r="R29">
+        <v>1.019655201404041</v>
+      </c>
+      <c r="S29">
+        <v>1.019655201404041</v>
+      </c>
+      <c r="T29">
+        <v>0.9963077307569979</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9116762719493507</v>
+      </c>
+      <c r="D30">
+        <v>1.030701302429575</v>
+      </c>
+      <c r="E30">
+        <v>1.064210833637961</v>
+      </c>
+      <c r="F30">
+        <v>0.9116762719493507</v>
+      </c>
+      <c r="G30">
+        <v>0.8974991971880508</v>
+      </c>
+      <c r="H30">
+        <v>0.9525755071476694</v>
+      </c>
+      <c r="I30">
+        <v>1.064210833637961</v>
+      </c>
+      <c r="J30">
+        <v>1.035875215710145</v>
+      </c>
+      <c r="K30">
+        <v>1.064210833637961</v>
+      </c>
+      <c r="L30">
+        <v>1.030701302429575</v>
+      </c>
+      <c r="M30">
+        <v>0.971188787189463</v>
+      </c>
+      <c r="N30">
+        <v>0.971188787189463</v>
+      </c>
+      <c r="O30">
+        <v>0.9649843605088652</v>
+      </c>
+      <c r="P30">
+        <v>1.002196136005629</v>
+      </c>
+      <c r="Q30">
+        <v>1.002196136005629</v>
+      </c>
+      <c r="R30">
+        <v>1.017699810413712</v>
+      </c>
+      <c r="S30">
+        <v>1.017699810413712</v>
+      </c>
+      <c r="T30">
+        <v>0.982089721343792</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.518212798800191</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.7542959308422469</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.344800142458665</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.518212798800191</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.7172016523931195</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.09837201902372</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.344800142458665</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9005025366637586</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.344800142458665</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.7542959308422469</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.136254364821219</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.136254364821219</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.123626916222053</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.205769624033701</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.205769624033701</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.240527253639942</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.240527253639942</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.055564180030283</v>
       </c>
     </row>
